--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>874899.5193929141</v>
+        <v>872428.1030277078</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673418</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.762916019699</v>
+        <v>292.9483245037779</v>
       </c>
       <c r="C11" t="n">
-        <v>315.301966127226</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>304.7121159769014</v>
+        <v>304.7121159769017</v>
       </c>
       <c r="E11" t="n">
-        <v>331.9594444284802</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>356.9051200979299</v>
+        <v>356.9051200979302</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>361.1685289733155</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.17833490341437</v>
+        <v>64.17833490341468</v>
       </c>
       <c r="T11" t="n">
-        <v>154.9001530341868</v>
+        <v>154.9001530341872</v>
       </c>
       <c r="U11" t="n">
-        <v>201.0416646322119</v>
+        <v>201.0416646322122</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>277.7813328263537</v>
       </c>
       <c r="W11" t="n">
-        <v>299.2700430736314</v>
+        <v>299.2700430736318</v>
       </c>
       <c r="X11" t="n">
-        <v>319.7601750346874</v>
+        <v>319.7601750346878</v>
       </c>
       <c r="Y11" t="n">
-        <v>288.1408727403166</v>
+        <v>336.2670130122723</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.5116546903839</v>
+        <v>116.5622580060861</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>122.7375733445345</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>128.8758316158483</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.1159644314913</v>
+        <v>85.14503878771009</v>
       </c>
       <c r="H12" t="n">
-        <v>40.75104878900477</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I12" t="n">
-        <v>22.8281302456292</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.375835234935522</v>
       </c>
       <c r="S12" t="n">
         <v>130.3073561089639</v>
@@ -1506,10 +1506,10 @@
         <v>225.7948325591512</v>
       </c>
       <c r="V12" t="n">
-        <v>182.8296615056437</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>201.724057517138</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.96842695365771</v>
+        <v>129.8610545381561</v>
       </c>
       <c r="C13" t="n">
-        <v>117.2758954548463</v>
+        <v>117.2758954548466</v>
       </c>
       <c r="D13" t="n">
-        <v>98.6445473744308</v>
+        <v>98.64454737443111</v>
       </c>
       <c r="E13" t="n">
-        <v>96.46303700278762</v>
+        <v>96.46303700278793</v>
       </c>
       <c r="F13" t="n">
-        <v>95.45012237914969</v>
+        <v>95.45012237915</v>
       </c>
       <c r="G13" t="n">
-        <v>116.1525483327497</v>
+        <v>82.25992074824491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.65242628615752</v>
+        <v>95.65242628615783</v>
       </c>
       <c r="I13" t="n">
-        <v>49.31856925242189</v>
+        <v>49.31856925242221</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.35263283326789</v>
+        <v>43.35263283326821</v>
       </c>
       <c r="S13" t="n">
-        <v>141.5001467826913</v>
+        <v>141.5001467826916</v>
       </c>
       <c r="T13" t="n">
-        <v>169.9953226071735</v>
+        <v>169.9953226071738</v>
       </c>
       <c r="U13" t="n">
-        <v>236.246239782786</v>
+        <v>236.2462397827863</v>
       </c>
       <c r="V13" t="n">
-        <v>202.1667176800464</v>
+        <v>202.1667176800468</v>
       </c>
       <c r="W13" t="n">
-        <v>236.5520726928094</v>
+        <v>236.5520726928098</v>
       </c>
       <c r="X13" t="n">
-        <v>175.7387297452556</v>
+        <v>175.7387297452559</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.6137277083132</v>
+        <v>168.6137277083135</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.762916019699</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>315.301966127226</v>
+        <v>315.3019661272266</v>
       </c>
       <c r="D14" t="n">
-        <v>304.7121159769014</v>
+        <v>304.712115976902</v>
       </c>
       <c r="E14" t="n">
-        <v>331.9594444284803</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>356.9051200979299</v>
+        <v>334.5514784744785</v>
       </c>
       <c r="G14" t="n">
-        <v>41.27421724786515</v>
+        <v>361.1685289733157</v>
       </c>
       <c r="H14" t="n">
-        <v>246.8666554924501</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.323830348264892e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.1783349034144</v>
+        <v>64.17833490341499</v>
       </c>
       <c r="T14" t="n">
-        <v>154.9001530341869</v>
+        <v>154.9001530341874</v>
       </c>
       <c r="U14" t="n">
-        <v>201.0416646322119</v>
+        <v>201.0416646322125</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>277.7813328263539</v>
       </c>
       <c r="W14" t="n">
-        <v>299.2700430736315</v>
+        <v>299.2700430736321</v>
       </c>
       <c r="X14" t="n">
-        <v>319.7601750346875</v>
+        <v>319.7601750346881</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>336.2670130122726</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.5622580060858</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>126.4999784445917</v>
       </c>
       <c r="G15" t="n">
-        <v>93.71860023707269</v>
+        <v>85.14503878771038</v>
       </c>
       <c r="H15" t="n">
-        <v>40.75104878900481</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I15" t="n">
-        <v>22.8281302456292</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.375835234935522</v>
+        <v>7.37583523493555</v>
       </c>
       <c r="S15" t="n">
-        <v>130.3073561089639</v>
+        <v>80.33643046518299</v>
       </c>
       <c r="T15" t="n">
         <v>191.1861279910934</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7948325591512</v>
+        <v>175.8239069153702</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,7 +1749,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>155.8020595596959</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.8610545381558</v>
+        <v>129.8610545381563</v>
       </c>
       <c r="C16" t="n">
-        <v>117.2758954548463</v>
+        <v>117.2758954548469</v>
       </c>
       <c r="D16" t="n">
-        <v>98.64454737443083</v>
+        <v>98.6445473744314</v>
       </c>
       <c r="E16" t="n">
-        <v>96.46303700278764</v>
+        <v>96.46303700278821</v>
       </c>
       <c r="F16" t="n">
-        <v>95.45012237914972</v>
+        <v>95.45012237915029</v>
       </c>
       <c r="G16" t="n">
-        <v>116.1525483327498</v>
+        <v>116.1525483327503</v>
       </c>
       <c r="H16" t="n">
-        <v>95.65242628615755</v>
+        <v>95.65242628615812</v>
       </c>
       <c r="I16" t="n">
-        <v>49.31856925242192</v>
+        <v>15.42594166790952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.35263283326792</v>
+        <v>43.35263283326851</v>
       </c>
       <c r="S16" t="n">
-        <v>141.5001467826913</v>
+        <v>141.5001467826919</v>
       </c>
       <c r="T16" t="n">
-        <v>169.9953226071736</v>
+        <v>169.9953226071741</v>
       </c>
       <c r="U16" t="n">
-        <v>202.3536121982873</v>
+        <v>236.2462397827866</v>
       </c>
       <c r="V16" t="n">
-        <v>202.1667176800465</v>
+        <v>202.166717680047</v>
       </c>
       <c r="W16" t="n">
-        <v>236.5520726928095</v>
+        <v>236.55207269281</v>
       </c>
       <c r="X16" t="n">
-        <v>175.7387297452556</v>
+        <v>175.7387297452562</v>
       </c>
       <c r="Y16" t="n">
-        <v>168.6137277083133</v>
+        <v>168.6137277083138</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
-        <v>231.7061764013862</v>
+        <v>1.638638159357451</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
         <v>309.1913255136064</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.46454031909093</v>
+        <v>16.46454031909089</v>
       </c>
       <c r="T17" t="n">
-        <v>107.1863584498634</v>
+        <v>107.1863584498633</v>
       </c>
       <c r="U17" t="n">
         <v>153.3278700478884</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W17" t="n">
         <v>251.556248489308</v>
@@ -1910,7 +1910,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="18">
@@ -1923,19 +1923,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>75.02377876021073</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>64.01965955774159</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.1159644314913</v>
+        <v>37.43124420338628</v>
       </c>
       <c r="H18" t="n">
         <v>90.72197443278634</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>112.0572748796452</v>
       </c>
     </row>
     <row r="19">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482624</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G19" t="n">
-        <v>68.43875374842629</v>
+        <v>68.43875374842625</v>
       </c>
       <c r="H19" t="n">
-        <v>47.93863170183407</v>
+        <v>47.93863170183403</v>
       </c>
       <c r="I19" t="n">
-        <v>1.604774668098443</v>
+        <v>1.604774668098401</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.78635219836784</v>
+        <v>93.78635219836779</v>
       </c>
       <c r="T19" t="n">
-        <v>122.2815280228501</v>
+        <v>122.28152802285</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5324451984626</v>
+        <v>188.5324451984625</v>
       </c>
       <c r="V19" t="n">
         <v>154.452923095723</v>
@@ -2065,10 +2065,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C20" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F20" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
-        <v>313.4547343889917</v>
+        <v>47.50520100544605</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>199.1528609081267</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.46454031909091</v>
+        <v>16.46454031909089</v>
       </c>
       <c r="T20" t="n">
-        <v>107.1863584498634</v>
+        <v>107.1863584498633</v>
       </c>
       <c r="U20" t="n">
         <v>153.3278700478884</v>
@@ -2147,7 +2147,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.7565459525297</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>75.02377876021069</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.1159644314913</v>
+        <v>132.2125179666185</v>
       </c>
       <c r="H21" t="n">
-        <v>4.472388770062736</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>22.82813024562923</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.37583523493555</v>
       </c>
       <c r="S21" t="n">
         <v>130.3073561089639</v>
       </c>
       <c r="T21" t="n">
-        <v>93.50140776298834</v>
+        <v>191.1861279910934</v>
       </c>
       <c r="U21" t="n">
         <v>225.7948325591512</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482622</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G22" t="n">
-        <v>68.43875374842628</v>
+        <v>68.43875374842625</v>
       </c>
       <c r="H22" t="n">
-        <v>47.93863170183405</v>
+        <v>47.93863170183403</v>
       </c>
       <c r="I22" t="n">
-        <v>1.604774668098429</v>
+        <v>1.604774668098401</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.78635219836782</v>
+        <v>93.78635219836779</v>
       </c>
       <c r="T22" t="n">
-        <v>122.2815280228501</v>
+        <v>122.28152802285</v>
       </c>
       <c r="U22" t="n">
         <v>188.5324451984625</v>
@@ -2305,7 +2305,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007091</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G24" t="n">
         <v>134.9994691657081</v>
@@ -2448,7 +2448,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
         <v>225.7871683969286</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C25" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482631</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.0200470791572</v>
+        <v>335.0200470791568</v>
       </c>
       <c r="C26" t="n">
-        <v>317.5590971866842</v>
+        <v>317.5590971866837</v>
       </c>
       <c r="D26" t="n">
-        <v>34.26963987392503</v>
+        <v>306.9692470363591</v>
       </c>
       <c r="E26" t="n">
-        <v>334.2165754879384</v>
+        <v>334.216575487938</v>
       </c>
       <c r="F26" t="n">
-        <v>359.1622511573881</v>
+        <v>359.1622511573876</v>
       </c>
       <c r="G26" t="n">
-        <v>363.2079310691301</v>
+        <v>90.50832390670702</v>
       </c>
       <c r="H26" t="n">
-        <v>246.8939698029971</v>
+        <v>246.8939698029967</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.4739672038525</v>
+        <v>61.47396720385202</v>
       </c>
       <c r="T26" t="n">
-        <v>156.2041755552968</v>
+        <v>156.2041755552963</v>
       </c>
       <c r="U26" t="n">
-        <v>203.2813773745786</v>
+        <v>203.2813773745782</v>
       </c>
       <c r="V26" t="n">
-        <v>280.0384638858116</v>
+        <v>280.0384638858111</v>
       </c>
       <c r="W26" t="n">
-        <v>301.5271741330897</v>
+        <v>301.5271741330892</v>
       </c>
       <c r="X26" t="n">
-        <v>322.0173060941457</v>
+        <v>322.0173060941452</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.5241440717302</v>
+        <v>338.5241440717298</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.1181855976139</v>
+        <v>132.1181855976135</v>
       </c>
       <c r="C28" t="n">
-        <v>119.5330265143045</v>
+        <v>119.533026514304</v>
       </c>
       <c r="D28" t="n">
-        <v>100.901678433889</v>
+        <v>100.9016784338885</v>
       </c>
       <c r="E28" t="n">
-        <v>98.72016806224582</v>
+        <v>98.72016806224536</v>
       </c>
       <c r="F28" t="n">
-        <v>97.70725343860789</v>
+        <v>97.70725343860744</v>
       </c>
       <c r="G28" t="n">
-        <v>118.3120136747049</v>
+        <v>118.3120136747044</v>
       </c>
       <c r="H28" t="n">
-        <v>97.04122032999743</v>
+        <v>97.04122032999697</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63862582551476</v>
+        <v>48.63862582551429</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.21835808572399</v>
+        <v>41.21835808572352</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0552307471185</v>
+        <v>142.0552307471181</v>
       </c>
       <c r="T28" t="n">
-        <v>171.8351546918458</v>
+        <v>171.8351546918454</v>
       </c>
       <c r="U28" t="n">
-        <v>238.4980436212895</v>
+        <v>238.498043621289</v>
       </c>
       <c r="V28" t="n">
-        <v>204.4238487395046</v>
+        <v>204.4238487395042</v>
       </c>
       <c r="W28" t="n">
-        <v>238.8092037522676</v>
+        <v>238.8092037522672</v>
       </c>
       <c r="X28" t="n">
-        <v>177.9958608047138</v>
+        <v>177.9958608047133</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.8708587677714</v>
+        <v>170.870858767771</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.0200470791572</v>
+        <v>335.0200470791566</v>
       </c>
       <c r="C29" t="n">
-        <v>317.5590971866842</v>
+        <v>317.5590971866836</v>
       </c>
       <c r="D29" t="n">
-        <v>237.5510172485046</v>
+        <v>306.969247036359</v>
       </c>
       <c r="E29" t="n">
-        <v>334.2165754879384</v>
+        <v>334.2165754879378</v>
       </c>
       <c r="F29" t="n">
-        <v>359.1622511573881</v>
+        <v>359.1622511573875</v>
       </c>
       <c r="G29" t="n">
-        <v>363.2079310691301</v>
+        <v>363.2079310691295</v>
       </c>
       <c r="H29" t="n">
-        <v>246.8939698029971</v>
+        <v>246.8939698029965</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.4739672038525</v>
+        <v>61.47396720385184</v>
       </c>
       <c r="T29" t="n">
-        <v>156.2041755552968</v>
+        <v>156.2041755552962</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>203.281377374578</v>
       </c>
       <c r="V29" t="n">
-        <v>280.0384638858116</v>
+        <v>7.338856723391224</v>
       </c>
       <c r="W29" t="n">
-        <v>301.5271741330897</v>
+        <v>301.527174133089</v>
       </c>
       <c r="X29" t="n">
-        <v>322.0173060941457</v>
+        <v>322.0173060941451</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.5241440717302</v>
+        <v>338.5241440717296</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824765</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.1181855976139</v>
+        <v>132.1181855976133</v>
       </c>
       <c r="C31" t="n">
-        <v>119.5330265143045</v>
+        <v>119.5330265143038</v>
       </c>
       <c r="D31" t="n">
-        <v>100.901678433889</v>
+        <v>100.9016784338883</v>
       </c>
       <c r="E31" t="n">
-        <v>98.72016806224582</v>
+        <v>98.72016806224516</v>
       </c>
       <c r="F31" t="n">
-        <v>97.70725343860789</v>
+        <v>97.70725343860724</v>
       </c>
       <c r="G31" t="n">
-        <v>118.3120136747049</v>
+        <v>118.3120136747042</v>
       </c>
       <c r="H31" t="n">
-        <v>97.04122032999743</v>
+        <v>97.04122032999678</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63862582551476</v>
+        <v>48.6386258255141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.21835808572399</v>
+        <v>41.21835808572334</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0552307471185</v>
+        <v>142.0552307471179</v>
       </c>
       <c r="T31" t="n">
-        <v>171.8351546918458</v>
+        <v>171.8351546918452</v>
       </c>
       <c r="U31" t="n">
-        <v>238.4980436212895</v>
+        <v>238.4980436212888</v>
       </c>
       <c r="V31" t="n">
-        <v>204.4238487395046</v>
+        <v>204.423848739504</v>
       </c>
       <c r="W31" t="n">
-        <v>238.8092037522676</v>
+        <v>238.809203752267</v>
       </c>
       <c r="X31" t="n">
-        <v>177.9958608047138</v>
+        <v>177.9958608047131</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.8708587677714</v>
+        <v>170.8708587677708</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.5415037104119</v>
+        <v>315.5415037104123</v>
       </c>
       <c r="C32" t="n">
-        <v>298.0805538179389</v>
+        <v>298.0805538179393</v>
       </c>
       <c r="D32" t="n">
-        <v>287.4907036676143</v>
+        <v>287.4907036676147</v>
       </c>
       <c r="E32" t="n">
-        <v>314.7380321191931</v>
+        <v>314.7380321191935</v>
       </c>
       <c r="F32" t="n">
-        <v>339.6837077886428</v>
+        <v>339.6837077886432</v>
       </c>
       <c r="G32" t="n">
-        <v>343.7293877003848</v>
+        <v>343.7293877003852</v>
       </c>
       <c r="H32" t="n">
-        <v>227.4154264342518</v>
+        <v>227.4154264342522</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.99542383510715</v>
+        <v>41.99542383510759</v>
       </c>
       <c r="T32" t="n">
-        <v>136.7256321865515</v>
+        <v>136.7256321865519</v>
       </c>
       <c r="U32" t="n">
-        <v>183.8028340058333</v>
+        <v>183.8028340058337</v>
       </c>
       <c r="V32" t="n">
-        <v>260.5599205170662</v>
+        <v>260.5599205170666</v>
       </c>
       <c r="W32" t="n">
-        <v>282.0486307643444</v>
+        <v>282.0486307643448</v>
       </c>
       <c r="X32" t="n">
-        <v>302.5387627254004</v>
+        <v>302.5387627254008</v>
       </c>
       <c r="Y32" t="n">
-        <v>319.0456007029849</v>
+        <v>319.0456007029853</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824765</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.6396422288686</v>
+        <v>112.639642228869</v>
       </c>
       <c r="C34" t="n">
-        <v>100.0544831455592</v>
+        <v>100.0544831455596</v>
       </c>
       <c r="D34" t="n">
-        <v>81.42313506514368</v>
+        <v>81.42313506514409</v>
       </c>
       <c r="E34" t="n">
-        <v>79.2416246935005</v>
+        <v>79.24162469350091</v>
       </c>
       <c r="F34" t="n">
-        <v>78.22871006986257</v>
+        <v>78.22871006986298</v>
       </c>
       <c r="G34" t="n">
-        <v>98.83347030595955</v>
+        <v>98.83347030595996</v>
       </c>
       <c r="H34" t="n">
-        <v>77.56267696125211</v>
+        <v>77.56267696125252</v>
       </c>
       <c r="I34" t="n">
-        <v>29.16008245676942</v>
+        <v>29.16008245676985</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.73981471697866</v>
+        <v>21.73981471697908</v>
       </c>
       <c r="S34" t="n">
-        <v>122.5766873783732</v>
+        <v>122.5766873783736</v>
       </c>
       <c r="T34" t="n">
-        <v>152.3566113231005</v>
+        <v>152.3566113231009</v>
       </c>
       <c r="U34" t="n">
-        <v>219.0195002525442</v>
+        <v>219.0195002525446</v>
       </c>
       <c r="V34" t="n">
-        <v>184.9453053707593</v>
+        <v>184.9453053707597</v>
       </c>
       <c r="W34" t="n">
-        <v>219.3306603835223</v>
+        <v>219.3306603835227</v>
       </c>
       <c r="X34" t="n">
-        <v>158.5173174359685</v>
+        <v>158.5173174359689</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.3923153990261</v>
+        <v>151.3923153990265</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441563</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G42" t="n">
         <v>134.9994691657081</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383226</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705228</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -4065,7 +4065,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G45" t="n">
         <v>134.9994691657081</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1383.302133394455</v>
+        <v>1094.319424725375</v>
       </c>
       <c r="C11" t="n">
-        <v>1064.81529892251</v>
+        <v>1094.319424725375</v>
       </c>
       <c r="D11" t="n">
-        <v>757.0252827842255</v>
+        <v>786.5294085870902</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7127126544475</v>
+        <v>786.5294085870902</v>
       </c>
       <c r="F11" t="n">
-        <v>61.20249033330623</v>
+        <v>426.0191862659485</v>
       </c>
       <c r="G11" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330655</v>
       </c>
       <c r="H11" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330655</v>
       </c>
       <c r="I11" t="n">
         <v>61.20249033330623</v>
       </c>
       <c r="J11" t="n">
-        <v>231.7869424005967</v>
+        <v>231.7869424005974</v>
       </c>
       <c r="K11" t="n">
-        <v>538.1873348380022</v>
+        <v>538.1873348380016</v>
       </c>
       <c r="L11" t="n">
-        <v>955.2058772905834</v>
+        <v>955.2058772905825</v>
       </c>
       <c r="M11" t="n">
-        <v>1450.888794084062</v>
+        <v>1450.888794084061</v>
       </c>
       <c r="N11" t="n">
-        <v>1959.206187070626</v>
+        <v>1959.206187070625</v>
       </c>
       <c r="O11" t="n">
-        <v>2425.860625836151</v>
+        <v>2425.86062583615</v>
       </c>
       <c r="P11" t="n">
-        <v>2789.638392031559</v>
+        <v>2789.638392031558</v>
       </c>
       <c r="Q11" t="n">
         <v>3014.647597950839</v>
@@ -5069,22 +5069,22 @@
         <v>2995.297915752772</v>
       </c>
       <c r="T11" t="n">
-        <v>2838.833114708139</v>
+        <v>2838.833114708138</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.760726190753</v>
+        <v>2635.760726190752</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.760726190753</v>
+        <v>2355.173521315648</v>
       </c>
       <c r="W11" t="n">
-        <v>2333.467753389105</v>
+        <v>2052.880548513999</v>
       </c>
       <c r="X11" t="n">
-        <v>2010.477677596491</v>
+        <v>1729.890472721385</v>
       </c>
       <c r="Y11" t="n">
-        <v>1719.426290990111</v>
+        <v>1390.226823214039</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>891.0641073715534</v>
+        <v>798.7729055147852</v>
       </c>
       <c r="C12" t="n">
-        <v>716.6110780904264</v>
+        <v>674.795558702124</v>
       </c>
       <c r="D12" t="n">
-        <v>567.6766684291752</v>
+        <v>544.617951009348</v>
       </c>
       <c r="E12" t="n">
-        <v>408.4392134237196</v>
+        <v>385.3804960038924</v>
       </c>
       <c r="F12" t="n">
-        <v>261.9046554506045</v>
+        <v>238.8459380307774</v>
       </c>
       <c r="G12" t="n">
-        <v>125.423883297583</v>
+        <v>152.8408483462217</v>
       </c>
       <c r="H12" t="n">
-        <v>84.2612077531337</v>
+        <v>61.20249033330623</v>
       </c>
       <c r="I12" t="n">
         <v>61.20249033330623</v>
@@ -5142,28 +5142,28 @@
         <v>2381.780644091913</v>
       </c>
       <c r="R12" t="n">
-        <v>2381.780644091913</v>
+        <v>2374.330305470766</v>
       </c>
       <c r="S12" t="n">
-        <v>2250.157052062656</v>
+        <v>2242.70671344151</v>
       </c>
       <c r="T12" t="n">
-        <v>2057.039751061552</v>
+        <v>2049.589412440405</v>
       </c>
       <c r="U12" t="n">
-        <v>1828.964162617965</v>
+        <v>1821.513823996818</v>
       </c>
       <c r="V12" t="n">
-        <v>1644.287736854689</v>
+        <v>1586.361715765076</v>
       </c>
       <c r="W12" t="n">
-        <v>1440.526062594953</v>
+        <v>1332.124359036874</v>
       </c>
       <c r="X12" t="n">
-        <v>1232.67456238942</v>
+        <v>1124.272858831341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1024.914263624466</v>
+        <v>916.5125600663873</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>736.9167793055725</v>
+        <v>702.6818019474888</v>
       </c>
       <c r="C13" t="n">
-        <v>618.4562788461318</v>
+        <v>584.2213014880477</v>
       </c>
       <c r="D13" t="n">
-        <v>518.8153219022623</v>
+        <v>484.5803445441779</v>
       </c>
       <c r="E13" t="n">
-        <v>421.3779107883354</v>
+        <v>387.1429334302507</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9636457588912</v>
+        <v>290.7286684008062</v>
       </c>
       <c r="G13" t="n">
-        <v>207.6378393621744</v>
+        <v>207.637839362175</v>
       </c>
       <c r="H13" t="n">
-        <v>111.0192269519142</v>
+        <v>111.0192269519145</v>
       </c>
       <c r="I13" t="n">
         <v>61.20249033330623</v>
       </c>
       <c r="J13" t="n">
-        <v>148.9604226023925</v>
+        <v>148.9604226023922</v>
       </c>
       <c r="K13" t="n">
-        <v>391.1853111114083</v>
+        <v>391.1853111114075</v>
       </c>
       <c r="L13" t="n">
-        <v>742.8412996508398</v>
+        <v>742.8412996508389</v>
       </c>
       <c r="M13" t="n">
-        <v>1121.313111935582</v>
+        <v>1121.313111935581</v>
       </c>
       <c r="N13" t="n">
-        <v>1497.396641824227</v>
+        <v>1497.396641824225</v>
       </c>
       <c r="O13" t="n">
-        <v>1832.530897950343</v>
+        <v>1832.530897950341</v>
       </c>
       <c r="P13" t="n">
-        <v>2102.915512420397</v>
+        <v>2102.915512420395</v>
       </c>
       <c r="Q13" t="n">
-        <v>2221.900634644968</v>
+        <v>2221.900634644965</v>
       </c>
       <c r="R13" t="n">
-        <v>2178.110096429546</v>
+        <v>2178.110096429542</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.180655234908</v>
+        <v>2035.180655234904</v>
       </c>
       <c r="T13" t="n">
-        <v>1863.468208156955</v>
+        <v>1863.468208156951</v>
       </c>
       <c r="U13" t="n">
-        <v>1624.835642719797</v>
+        <v>1624.835642719794</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.626836982377</v>
+        <v>1420.626836982373</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.685349413882</v>
+        <v>1181.685349413878</v>
       </c>
       <c r="X13" t="n">
-        <v>1004.171480984331</v>
+        <v>1004.171480984327</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.8545843092672</v>
+        <v>833.8545843092626</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1674.353520000835</v>
+        <v>1390.226823214037</v>
       </c>
       <c r="C14" t="n">
-        <v>1355.866685528889</v>
+        <v>1071.739988742091</v>
       </c>
       <c r="D14" t="n">
-        <v>1048.076669390605</v>
+        <v>763.9499726038055</v>
       </c>
       <c r="E14" t="n">
-        <v>712.7640992608267</v>
+        <v>763.9499726038055</v>
       </c>
       <c r="F14" t="n">
-        <v>352.2538769396853</v>
+        <v>426.0191862659484</v>
       </c>
       <c r="G14" t="n">
-        <v>310.5627484064882</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="H14" t="n">
         <v>61.20249033330622</v>
@@ -5276,22 +5276,22 @@
         <v>61.20249033330622</v>
       </c>
       <c r="J14" t="n">
-        <v>231.7869424005972</v>
+        <v>231.7869424005971</v>
       </c>
       <c r="K14" t="n">
-        <v>538.1873348380016</v>
+        <v>538.1873348380022</v>
       </c>
       <c r="L14" t="n">
-        <v>955.2058772905821</v>
+        <v>955.205877290583</v>
       </c>
       <c r="M14" t="n">
-        <v>1450.88879408406</v>
+        <v>1450.888794084061</v>
       </c>
       <c r="N14" t="n">
-        <v>1959.206187070625</v>
+        <v>1959.206187070626</v>
       </c>
       <c r="O14" t="n">
-        <v>2425.860625836149</v>
+        <v>2425.86062583615</v>
       </c>
       <c r="P14" t="n">
         <v>2789.638392031557</v>
@@ -5306,22 +5306,22 @@
         <v>2995.297915752771</v>
       </c>
       <c r="T14" t="n">
-        <v>2838.833114708138</v>
+        <v>2838.833114708137</v>
       </c>
       <c r="U14" t="n">
         <v>2635.760726190751</v>
       </c>
       <c r="V14" t="n">
-        <v>2635.760726190751</v>
+        <v>2355.173521315646</v>
       </c>
       <c r="W14" t="n">
-        <v>2333.467753389104</v>
+        <v>2052.880548513997</v>
       </c>
       <c r="X14" t="n">
-        <v>2010.47767759649</v>
+        <v>1729.890472721383</v>
       </c>
       <c r="Y14" t="n">
-        <v>2010.47767759649</v>
+        <v>1390.226823214037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>849.2485879832517</v>
+        <v>849.2485879832495</v>
       </c>
       <c r="C15" t="n">
-        <v>674.7955587021247</v>
+        <v>674.7955587021225</v>
       </c>
       <c r="D15" t="n">
-        <v>525.8611490408734</v>
+        <v>525.8611490408713</v>
       </c>
       <c r="E15" t="n">
-        <v>366.6236940354179</v>
+        <v>366.6236940354158</v>
       </c>
       <c r="F15" t="n">
-        <v>220.0891360623029</v>
+        <v>238.8459380307777</v>
       </c>
       <c r="G15" t="n">
-        <v>125.423883297583</v>
+        <v>152.8408483462217</v>
       </c>
       <c r="H15" t="n">
-        <v>84.2612077531337</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="I15" t="n">
         <v>61.20249033330622</v>
@@ -5358,49 +5358,49 @@
         <v>143.9835744071039</v>
       </c>
       <c r="K15" t="n">
-        <v>363.6244569912277</v>
+        <v>363.6244569912276</v>
       </c>
       <c r="L15" t="n">
-        <v>705.281270149181</v>
+        <v>705.2812701491807</v>
       </c>
       <c r="M15" t="n">
         <v>1123.335524365988</v>
       </c>
       <c r="N15" t="n">
-        <v>1566.863075648404</v>
+        <v>1566.863075648403</v>
       </c>
       <c r="O15" t="n">
         <v>1950.38433973262</v>
       </c>
       <c r="P15" t="n">
-        <v>2238.860899748833</v>
+        <v>2238.860899748832</v>
       </c>
       <c r="Q15" t="n">
         <v>2381.780644091913</v>
       </c>
       <c r="R15" t="n">
-        <v>2374.330305470766</v>
+        <v>2374.330305470765</v>
       </c>
       <c r="S15" t="n">
-        <v>2242.70671344151</v>
+        <v>2293.182395909974</v>
       </c>
       <c r="T15" t="n">
-        <v>2049.589412440405</v>
+        <v>2100.06509490887</v>
       </c>
       <c r="U15" t="n">
-        <v>1821.513823996818</v>
+        <v>1922.465188933749</v>
       </c>
       <c r="V15" t="n">
-        <v>1586.361715765076</v>
+        <v>1687.313080702006</v>
       </c>
       <c r="W15" t="n">
-        <v>1332.124359036874</v>
+        <v>1433.075723973804</v>
       </c>
       <c r="X15" t="n">
-        <v>1174.748541299807</v>
+        <v>1225.224223768271</v>
       </c>
       <c r="Y15" t="n">
-        <v>966.9882425348535</v>
+        <v>1017.463925003318</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.9167793055726</v>
+        <v>702.6818019474835</v>
       </c>
       <c r="C16" t="n">
-        <v>618.4562788461319</v>
+        <v>584.2213014880422</v>
       </c>
       <c r="D16" t="n">
-        <v>518.8153219022624</v>
+        <v>484.580344544172</v>
       </c>
       <c r="E16" t="n">
-        <v>421.3779107883355</v>
+        <v>387.1429334302445</v>
       </c>
       <c r="F16" t="n">
-        <v>324.9636457588913</v>
+        <v>290.7286684007997</v>
       </c>
       <c r="G16" t="n">
-        <v>207.6378393621744</v>
+        <v>173.4028620040822</v>
       </c>
       <c r="H16" t="n">
-        <v>111.0192269519142</v>
+        <v>76.7842495938209</v>
       </c>
       <c r="I16" t="n">
         <v>61.20249033330622</v>
       </c>
       <c r="J16" t="n">
-        <v>148.9604226023926</v>
+        <v>148.9604226023918</v>
       </c>
       <c r="K16" t="n">
-        <v>391.1853111114084</v>
+        <v>391.185311111407</v>
       </c>
       <c r="L16" t="n">
-        <v>742.8412996508399</v>
+        <v>742.841299650838</v>
       </c>
       <c r="M16" t="n">
-        <v>1121.313111935582</v>
+        <v>1121.31311193558</v>
       </c>
       <c r="N16" t="n">
-        <v>1497.396641824226</v>
+        <v>1497.396641824223</v>
       </c>
       <c r="O16" t="n">
-        <v>1832.530897950342</v>
+        <v>1832.530897950339</v>
       </c>
       <c r="P16" t="n">
-        <v>2102.915512420397</v>
+        <v>2102.915512420393</v>
       </c>
       <c r="Q16" t="n">
-        <v>2221.900634644967</v>
+        <v>2221.900634644963</v>
       </c>
       <c r="R16" t="n">
-        <v>2178.110096429545</v>
+        <v>2178.11009642954</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.180655234907</v>
+        <v>2035.180655234902</v>
       </c>
       <c r="T16" t="n">
-        <v>1863.468208156955</v>
+        <v>1863.468208156948</v>
       </c>
       <c r="U16" t="n">
-        <v>1659.070620077877</v>
+        <v>1624.83564271979</v>
       </c>
       <c r="V16" t="n">
-        <v>1454.861814340456</v>
+        <v>1420.626836982369</v>
       </c>
       <c r="W16" t="n">
-        <v>1215.920326771961</v>
+        <v>1181.685349413874</v>
       </c>
       <c r="X16" t="n">
-        <v>1038.40645834241</v>
+        <v>1004.171480984322</v>
       </c>
       <c r="Y16" t="n">
-        <v>868.0895616673461</v>
+        <v>833.8545843092576</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1672.060135231131</v>
+        <v>1439.668682461404</v>
       </c>
       <c r="C17" t="n">
         <v>1438.013492401447</v>
@@ -5498,10 +5498,10 @@
         <v>1178.41922836854</v>
       </c>
       <c r="E17" t="n">
-        <v>891.3024103441394</v>
+        <v>891.3024103441392</v>
       </c>
       <c r="F17" t="n">
-        <v>578.9879401283753</v>
+        <v>578.9879401283752</v>
       </c>
       <c r="G17" t="n">
         <v>262.366996301111</v>
@@ -5516,19 +5516,19 @@
         <v>231.7869424005971</v>
       </c>
       <c r="K17" t="n">
-        <v>538.1873348380022</v>
+        <v>538.1873348380013</v>
       </c>
       <c r="L17" t="n">
-        <v>955.205877290583</v>
+        <v>955.2058772905825</v>
       </c>
       <c r="M17" t="n">
         <v>1450.888794084061</v>
       </c>
       <c r="N17" t="n">
-        <v>1959.206187070626</v>
+        <v>1959.206187070625</v>
       </c>
       <c r="O17" t="n">
-        <v>2425.86062583615</v>
+        <v>2425.860625836149</v>
       </c>
       <c r="P17" t="n">
         <v>2789.638392031557</v>
@@ -5549,16 +5549,16 @@
         <v>2780.347982506884</v>
       </c>
       <c r="V17" t="n">
-        <v>2780.347982506884</v>
+        <v>2547.956529737157</v>
       </c>
       <c r="W17" t="n">
-        <v>2526.250761810614</v>
+        <v>2293.859309040887</v>
       </c>
       <c r="X17" t="n">
-        <v>2251.456438123377</v>
+        <v>2019.06498535365</v>
       </c>
       <c r="Y17" t="n">
-        <v>1959.988540721409</v>
+        <v>1727.597087951682</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>748.2972230463183</v>
+        <v>842.8683552661761</v>
       </c>
       <c r="C18" t="n">
-        <v>672.5156283390347</v>
+        <v>668.4153259850491</v>
       </c>
       <c r="D18" t="n">
-        <v>523.5812186777835</v>
+        <v>519.4809163237978</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9148958921859</v>
+        <v>360.2434613183424</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3803379190708</v>
+        <v>213.7089033452273</v>
       </c>
       <c r="G18" t="n">
         <v>175.8995657660492</v>
@@ -5637,7 +5637,7 @@
         <v>1124.27285883134</v>
       </c>
       <c r="Y18" t="n">
-        <v>916.5125600663864</v>
+        <v>1011.083692286244</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.5465145679319</v>
+        <v>399.5465145679316</v>
       </c>
       <c r="C19" t="n">
-        <v>329.2817662138684</v>
+        <v>329.2817662138682</v>
       </c>
       <c r="D19" t="n">
-        <v>277.8365613753762</v>
+        <v>277.8365613753759</v>
       </c>
       <c r="E19" t="n">
-        <v>228.5949023668265</v>
+        <v>228.5949023668263</v>
       </c>
       <c r="F19" t="n">
-        <v>180.3763894427596</v>
+        <v>180.3763894427594</v>
       </c>
       <c r="G19" t="n">
-        <v>111.2463351514199</v>
+        <v>111.2463351514198</v>
       </c>
       <c r="H19" t="n">
-        <v>62.82347484653697</v>
+        <v>62.82347484653693</v>
       </c>
       <c r="I19" t="n">
         <v>61.20249033330622</v>
@@ -5674,49 +5674,49 @@
         <v>162.8972003313766</v>
       </c>
       <c r="K19" t="n">
-        <v>346.6824167976666</v>
+        <v>249.9745437718427</v>
       </c>
       <c r="L19" t="n">
-        <v>584.7251074494394</v>
+        <v>488.0172344236156</v>
       </c>
       <c r="M19" t="n">
-        <v>822.1217816890543</v>
+        <v>737.0011390464869</v>
       </c>
       <c r="N19" t="n">
-        <v>1075.342428540162</v>
+        <v>990.2217858975941</v>
       </c>
       <c r="O19" t="n">
-        <v>1296.302091602534</v>
+        <v>1211.181448959967</v>
       </c>
       <c r="P19" t="n">
-        <v>1480.266865030168</v>
+        <v>1395.146222387601</v>
       </c>
       <c r="Q19" t="n">
         <v>1485.091242073421</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.408792206966</v>
+        <v>1489.408792206965</v>
       </c>
       <c r="S19" t="n">
         <v>1394.675103117705</v>
       </c>
       <c r="T19" t="n">
-        <v>1271.15840814513</v>
+        <v>1271.158408145129</v>
       </c>
       <c r="U19" t="n">
         <v>1080.721594813349</v>
       </c>
       <c r="V19" t="n">
-        <v>924.7085411813059</v>
+        <v>924.7085411813055</v>
       </c>
       <c r="W19" t="n">
-        <v>733.9628057181887</v>
+        <v>733.9628057181883</v>
       </c>
       <c r="X19" t="n">
-        <v>604.6446893940148</v>
+        <v>604.6446893940144</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.5235448243282</v>
+        <v>482.5235448243279</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1507.14006880021</v>
+        <v>1439.668682461404</v>
       </c>
       <c r="C20" t="n">
-        <v>1236.848986433642</v>
+        <v>1169.377600094836</v>
       </c>
       <c r="D20" t="n">
-        <v>977.2547224007351</v>
+        <v>909.783336061929</v>
       </c>
       <c r="E20" t="n">
-        <v>690.1379043763345</v>
+        <v>622.6665180375282</v>
       </c>
       <c r="F20" t="n">
-        <v>377.8234341605706</v>
+        <v>310.3520478217642</v>
       </c>
       <c r="G20" t="n">
-        <v>61.20249033330622</v>
+        <v>262.366996301111</v>
       </c>
       <c r="H20" t="n">
         <v>61.20249033330622</v>
@@ -5753,25 +5753,25 @@
         <v>231.7869424005971</v>
       </c>
       <c r="K20" t="n">
-        <v>538.1873348380022</v>
+        <v>538.1873348380013</v>
       </c>
       <c r="L20" t="n">
-        <v>955.2058772905834</v>
+        <v>955.2058772905825</v>
       </c>
       <c r="M20" t="n">
-        <v>1450.888794084062</v>
+        <v>1450.888794084061</v>
       </c>
       <c r="N20" t="n">
-        <v>1959.206187070626</v>
+        <v>1959.206187070625</v>
       </c>
       <c r="O20" t="n">
-        <v>2425.86062583615</v>
+        <v>2425.860625836149</v>
       </c>
       <c r="P20" t="n">
-        <v>2789.638392031558</v>
+        <v>2789.638392031557</v>
       </c>
       <c r="Q20" t="n">
-        <v>3014.647597950839</v>
+        <v>3014.647597950838</v>
       </c>
       <c r="R20" t="n">
         <v>3060.124516665311</v>
@@ -5783,19 +5783,19 @@
         <v>2935.224618918893</v>
       </c>
       <c r="U20" t="n">
-        <v>2780.347982506884</v>
+        <v>2780.347982506885</v>
       </c>
       <c r="V20" t="n">
-        <v>2547.956529737157</v>
+        <v>2547.956529737158</v>
       </c>
       <c r="W20" t="n">
-        <v>2293.859309040886</v>
+        <v>2293.859309040887</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.06498535365</v>
+        <v>2019.064985353651</v>
       </c>
       <c r="Y20" t="n">
-        <v>1795.068474290489</v>
+        <v>1727.597087951683</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>854.4189962413088</v>
+        <v>748.2972230463183</v>
       </c>
       <c r="C21" t="n">
-        <v>679.9659669601818</v>
+        <v>672.5156283390348</v>
       </c>
       <c r="D21" t="n">
-        <v>531.0315572989306</v>
+        <v>523.5812186777836</v>
       </c>
       <c r="E21" t="n">
-        <v>371.7941022934751</v>
+        <v>364.3437636723281</v>
       </c>
       <c r="F21" t="n">
-        <v>225.25954432036</v>
+        <v>217.809205699213</v>
       </c>
       <c r="G21" t="n">
-        <v>88.7787721673385</v>
+        <v>84.26120775313373</v>
       </c>
       <c r="H21" t="n">
-        <v>84.26120775313372</v>
+        <v>84.26120775313373</v>
       </c>
       <c r="I21" t="n">
         <v>61.20249033330622</v>
@@ -5853,28 +5853,28 @@
         <v>2381.780644091913</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.780644091913</v>
+        <v>2374.330305470765</v>
       </c>
       <c r="S21" t="n">
-        <v>2250.157052062656</v>
+        <v>2242.706713441509</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.711185635395</v>
+        <v>2049.589412440404</v>
       </c>
       <c r="U21" t="n">
-        <v>1927.635597191808</v>
+        <v>1821.513823996817</v>
       </c>
       <c r="V21" t="n">
-        <v>1692.483488960065</v>
+        <v>1586.361715765075</v>
       </c>
       <c r="W21" t="n">
-        <v>1438.246132231864</v>
+        <v>1332.124359036873</v>
       </c>
       <c r="X21" t="n">
-        <v>1230.394632026331</v>
+        <v>1124.27285883134</v>
       </c>
       <c r="Y21" t="n">
-        <v>1022.634333261377</v>
+        <v>916.5125600663864</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.5465145679318</v>
+        <v>399.5465145679316</v>
       </c>
       <c r="C22" t="n">
-        <v>329.2817662138683</v>
+        <v>329.2817662138682</v>
       </c>
       <c r="D22" t="n">
-        <v>277.836561375376</v>
+        <v>277.8365613753759</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5949023668264</v>
+        <v>228.5949023668263</v>
       </c>
       <c r="F22" t="n">
-        <v>180.3763894427595</v>
+        <v>180.3763894427594</v>
       </c>
       <c r="G22" t="n">
         <v>111.2463351514198</v>
       </c>
       <c r="H22" t="n">
-        <v>62.82347484653695</v>
+        <v>62.82347484653693</v>
       </c>
       <c r="I22" t="n">
         <v>61.20249033330622</v>
@@ -5911,28 +5911,28 @@
         <v>162.8972003313766</v>
       </c>
       <c r="K22" t="n">
-        <v>249.9745437718426</v>
+        <v>249.9745437718427</v>
       </c>
       <c r="L22" t="n">
-        <v>488.0172344236155</v>
+        <v>488.0172344236156</v>
       </c>
       <c r="M22" t="n">
-        <v>737.0011390464867</v>
+        <v>737.0011390464869</v>
       </c>
       <c r="N22" t="n">
-        <v>978.6345555143372</v>
+        <v>990.2217858975941</v>
       </c>
       <c r="O22" t="n">
-        <v>1199.59421857671</v>
+        <v>1211.181448959967</v>
       </c>
       <c r="P22" t="n">
-        <v>1383.558992004344</v>
+        <v>1395.146222387601</v>
       </c>
       <c r="Q22" t="n">
         <v>1485.091242073421</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.408792206966</v>
+        <v>1489.408792206965</v>
       </c>
       <c r="S22" t="n">
         <v>1394.675103117705</v>
@@ -5944,16 +5944,16 @@
         <v>1080.721594813349</v>
       </c>
       <c r="V22" t="n">
-        <v>924.7085411813057</v>
+        <v>924.7085411813055</v>
       </c>
       <c r="W22" t="n">
-        <v>733.9628057181885</v>
+        <v>733.9628057181883</v>
       </c>
       <c r="X22" t="n">
-        <v>604.6446893940147</v>
+        <v>604.6446893940144</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.523544824328</v>
+        <v>482.5235448243279</v>
       </c>
     </row>
     <row r="23">
@@ -5972,52 +5972,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
         <v>3051.821232515854</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
         <v>312.3844025601599</v>
@@ -6063,7 +6063,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6096,22 +6096,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C25" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>175.0427429954467</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>273.3535972631171</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L25" t="n">
-        <v>525.7713142112982</v>
+        <v>602.6554402004992</v>
       </c>
       <c r="M25" t="n">
-        <v>789.9116685363199</v>
+        <v>866.795794525521</v>
       </c>
       <c r="N25" t="n">
-        <v>961.2205055661674</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773558</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1747.341988956934</v>
+        <v>1747.341988956942</v>
       </c>
       <c r="C26" t="n">
-        <v>1426.575224121898</v>
+        <v>1426.575224121908</v>
       </c>
       <c r="D26" t="n">
-        <v>1391.959426269449</v>
+        <v>1116.505277620535</v>
       </c>
       <c r="E26" t="n">
-        <v>1054.366925776581</v>
+        <v>778.9127771276687</v>
       </c>
       <c r="F26" t="n">
-        <v>691.576773092351</v>
+        <v>416.1226244434387</v>
       </c>
       <c r="G26" t="n">
-        <v>324.7000750427249</v>
+        <v>324.7000750427246</v>
       </c>
       <c r="H26" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="I26" t="n">
-        <v>81.38772292015429</v>
+        <v>81.38772292015346</v>
       </c>
       <c r="J26" t="n">
         <v>317.5035105176598</v>
       </c>
       <c r="K26" t="n">
-        <v>698.5595408459862</v>
+        <v>698.5595408459872</v>
       </c>
       <c r="L26" t="n">
-        <v>1196.830410732875</v>
+        <v>1196.830410732877</v>
       </c>
       <c r="M26" t="n">
-        <v>1777.598972043279</v>
+        <v>1777.598972043282</v>
       </c>
       <c r="N26" t="n">
-        <v>2371.614445740542</v>
+        <v>2371.614445740544</v>
       </c>
       <c r="O26" t="n">
-        <v>2921.823573258358</v>
+        <v>2921.823573258362</v>
       </c>
       <c r="P26" t="n">
-        <v>3363.834596254017</v>
+        <v>3363.83459625402</v>
       </c>
       <c r="Q26" t="n">
-        <v>3659.357614648179</v>
+        <v>3659.357614648183</v>
       </c>
       <c r="R26" t="n">
-        <v>3765.611337843461</v>
+        <v>3765.611337843466</v>
       </c>
       <c r="S26" t="n">
-        <v>3703.516421475933</v>
+        <v>3703.516421475939</v>
       </c>
       <c r="T26" t="n">
-        <v>3545.734425965532</v>
+        <v>3545.734425965538</v>
       </c>
       <c r="U26" t="n">
-        <v>3340.399701344746</v>
+        <v>3340.399701344752</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.532566106553</v>
+        <v>3057.532566106559</v>
       </c>
       <c r="W26" t="n">
-        <v>2752.959662941816</v>
+        <v>2752.959662941822</v>
       </c>
       <c r="X26" t="n">
-        <v>2427.689656786113</v>
+        <v>2427.68965678612</v>
       </c>
       <c r="Y26" t="n">
-        <v>2085.746076915679</v>
+        <v>2085.746076915686</v>
       </c>
     </row>
     <row r="27">
@@ -6279,55 +6279,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>950.3439648057944</v>
+        <v>950.3439648057943</v>
       </c>
       <c r="C27" t="n">
-        <v>775.8909355246674</v>
+        <v>775.8909355246673</v>
       </c>
       <c r="D27" t="n">
         <v>626.9565258634161</v>
       </c>
       <c r="E27" t="n">
-        <v>467.7190708579607</v>
+        <v>467.7190708579606</v>
       </c>
       <c r="F27" t="n">
-        <v>321.1845128848457</v>
+        <v>321.1845128848456</v>
       </c>
       <c r="G27" t="n">
         <v>184.8214127174638</v>
       </c>
       <c r="H27" t="n">
-        <v>94.3195183553313</v>
+        <v>94.31951835533137</v>
       </c>
       <c r="I27" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="J27" t="n">
-        <v>168.9894962474865</v>
+        <v>168.9894962474867</v>
       </c>
       <c r="K27" t="n">
-        <v>407.2536952278336</v>
+        <v>407.2536952278338</v>
       </c>
       <c r="L27" t="n">
-        <v>773.9518555404989</v>
+        <v>773.9518555404992</v>
       </c>
       <c r="M27" t="n">
         <v>1221.228180762815</v>
       </c>
       <c r="N27" t="n">
-        <v>1694.751224317269</v>
+        <v>1694.75122431727</v>
       </c>
       <c r="O27" t="n">
         <v>2105.712503735324</v>
       </c>
       <c r="P27" t="n">
-        <v>2416.212095211426</v>
+        <v>2416.212095211427</v>
       </c>
       <c r="Q27" t="n">
-        <v>2573.853652858026</v>
+        <v>2573.853652858027</v>
       </c>
       <c r="R27" t="n">
-        <v>2573.709299450541</v>
+        <v>2573.709299450542</v>
       </c>
       <c r="S27" t="n">
         <v>2444.271412944022</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.0435260288533</v>
+        <v>763.0435260288502</v>
       </c>
       <c r="C28" t="n">
-        <v>642.3030952063235</v>
+        <v>642.3030952063209</v>
       </c>
       <c r="D28" t="n">
-        <v>540.382207899365</v>
+        <v>540.3822078993628</v>
       </c>
       <c r="E28" t="n">
-        <v>440.664866422349</v>
+        <v>440.6648664223472</v>
       </c>
       <c r="F28" t="n">
-        <v>341.9706710298158</v>
+        <v>341.9706710298145</v>
       </c>
       <c r="G28" t="n">
-        <v>222.4635865099119</v>
+        <v>222.463586509911</v>
       </c>
       <c r="H28" t="n">
-        <v>124.4421518331468</v>
+        <v>124.4421518331464</v>
       </c>
       <c r="I28" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="J28" t="n">
-        <v>167.6715158422849</v>
+        <v>167.6715158422855</v>
       </c>
       <c r="K28" t="n">
-        <v>418.8953554296413</v>
+        <v>418.8953554296424</v>
       </c>
       <c r="L28" t="n">
-        <v>764.9037329111687</v>
+        <v>782.6918105166192</v>
       </c>
       <c r="M28" t="n">
-        <v>1156.297435149198</v>
+        <v>1174.085512754649</v>
       </c>
       <c r="N28" t="n">
-        <v>1544.942468493542</v>
+        <v>1562.730546098994</v>
       </c>
       <c r="O28" t="n">
-        <v>1891.508724052436</v>
+        <v>1891.508724052427</v>
       </c>
       <c r="P28" t="n">
-        <v>2171.352881124575</v>
+        <v>2171.352881124567</v>
       </c>
       <c r="Q28" t="n">
-        <v>2296.19983391557</v>
+        <v>2296.199833915563</v>
       </c>
       <c r="R28" t="n">
-        <v>2254.565128778475</v>
+        <v>2254.565128778468</v>
       </c>
       <c r="S28" t="n">
-        <v>2111.074996710679</v>
+        <v>2111.074996710672</v>
       </c>
       <c r="T28" t="n">
-        <v>1937.504133385582</v>
+        <v>1937.504133385576</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.597018616602</v>
+        <v>1696.597018616597</v>
       </c>
       <c r="V28" t="n">
-        <v>1490.108282516093</v>
+        <v>1490.108282516088</v>
       </c>
       <c r="W28" t="n">
-        <v>1248.886864584509</v>
+        <v>1248.886864584505</v>
       </c>
       <c r="X28" t="n">
-        <v>1069.093065791869</v>
+        <v>1069.093065791865</v>
       </c>
       <c r="Y28" t="n">
-        <v>896.4962387537159</v>
+        <v>896.4962387537123</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1952.67671357772</v>
+        <v>2022.796137605853</v>
       </c>
       <c r="C29" t="n">
-        <v>1631.909948742686</v>
+        <v>1702.029372770819</v>
       </c>
       <c r="D29" t="n">
-        <v>1391.959426269449</v>
+        <v>1391.959426269446</v>
       </c>
       <c r="E29" t="n">
-        <v>1054.366925776581</v>
+        <v>1054.36692577658</v>
       </c>
       <c r="F29" t="n">
-        <v>691.576773092351</v>
+        <v>691.5767730923499</v>
       </c>
       <c r="G29" t="n">
-        <v>324.700075042725</v>
+        <v>324.7000750427243</v>
       </c>
       <c r="H29" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="I29" t="n">
-        <v>81.38772292015301</v>
+        <v>81.38772292015324</v>
       </c>
       <c r="J29" t="n">
-        <v>317.5035105176589</v>
+        <v>317.5035105176594</v>
       </c>
       <c r="K29" t="n">
-        <v>698.5595408459853</v>
+        <v>698.5595408459866</v>
       </c>
       <c r="L29" t="n">
-        <v>1196.830410732874</v>
+        <v>1196.830410732876</v>
       </c>
       <c r="M29" t="n">
-        <v>1777.598972043279</v>
+        <v>1777.598972043281</v>
       </c>
       <c r="N29" t="n">
-        <v>2371.614445740541</v>
+        <v>2371.614445740544</v>
       </c>
       <c r="O29" t="n">
-        <v>2921.823573258358</v>
+        <v>2921.823573258362</v>
       </c>
       <c r="P29" t="n">
-        <v>3363.834596254016</v>
+        <v>3363.83459625402</v>
       </c>
       <c r="Q29" t="n">
-        <v>3659.357614648179</v>
+        <v>3659.357614648183</v>
       </c>
       <c r="R29" t="n">
-        <v>3765.611337843461</v>
+        <v>3765.611337843466</v>
       </c>
       <c r="S29" t="n">
-        <v>3703.516421475933</v>
+        <v>3703.516421475939</v>
       </c>
       <c r="T29" t="n">
-        <v>3545.734425965533</v>
+        <v>3545.734425965539</v>
       </c>
       <c r="U29" t="n">
-        <v>3545.734425965533</v>
+        <v>3340.399701344753</v>
       </c>
       <c r="V29" t="n">
-        <v>3262.867290727339</v>
+        <v>3332.986714755469</v>
       </c>
       <c r="W29" t="n">
-        <v>2958.294387562602</v>
+        <v>3028.413811590733</v>
       </c>
       <c r="X29" t="n">
-        <v>2633.024381406899</v>
+        <v>2703.143805435031</v>
       </c>
       <c r="Y29" t="n">
-        <v>2291.080801536465</v>
+        <v>2361.200225564597</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>950.3439648057944</v>
+        <v>950.3439648057936</v>
       </c>
       <c r="C30" t="n">
-        <v>775.8909355246674</v>
+        <v>775.8909355246666</v>
       </c>
       <c r="D30" t="n">
-        <v>626.9565258634161</v>
+        <v>626.9565258634153</v>
       </c>
       <c r="E30" t="n">
-        <v>467.7190708579607</v>
+        <v>467.7190708579598</v>
       </c>
       <c r="F30" t="n">
-        <v>321.1845128848457</v>
+        <v>321.1845128848448</v>
       </c>
       <c r="G30" t="n">
-        <v>184.8214127174638</v>
+        <v>184.8214127174629</v>
       </c>
       <c r="H30" t="n">
-        <v>94.3195183553313</v>
+        <v>94.31951835533043</v>
       </c>
       <c r="I30" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="J30" t="n">
-        <v>168.9894962474865</v>
+        <v>168.9894962474866</v>
       </c>
       <c r="K30" t="n">
-        <v>407.2536952278336</v>
+        <v>407.2536952278337</v>
       </c>
       <c r="L30" t="n">
-        <v>773.9518555404989</v>
+        <v>773.951855540499</v>
       </c>
       <c r="M30" t="n">
         <v>1221.228180762815</v>
@@ -6567,19 +6567,19 @@
         <v>2573.709299450541</v>
       </c>
       <c r="S30" t="n">
-        <v>2444.271412944022</v>
+        <v>2444.271412944021</v>
       </c>
       <c r="T30" t="n">
-        <v>2251.628412621878</v>
+        <v>2251.628412621877</v>
       </c>
       <c r="U30" t="n">
         <v>2023.560565756293</v>
       </c>
       <c r="V30" t="n">
-        <v>1788.408457524551</v>
+        <v>1788.40845752455</v>
       </c>
       <c r="W30" t="n">
-        <v>1534.171100796349</v>
+        <v>1534.171100796348</v>
       </c>
       <c r="X30" t="n">
         <v>1326.319600590816</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.0435260288533</v>
+        <v>763.0435260288489</v>
       </c>
       <c r="C31" t="n">
-        <v>642.3030952063235</v>
+        <v>642.3030952063198</v>
       </c>
       <c r="D31" t="n">
-        <v>540.382207899365</v>
+        <v>540.3822078993618</v>
       </c>
       <c r="E31" t="n">
-        <v>440.664866422349</v>
+        <v>440.6648664223464</v>
       </c>
       <c r="F31" t="n">
-        <v>341.9706710298158</v>
+        <v>341.9706710298138</v>
       </c>
       <c r="G31" t="n">
-        <v>222.4635865099119</v>
+        <v>222.4635865099106</v>
       </c>
       <c r="H31" t="n">
-        <v>124.4421518331468</v>
+        <v>124.4421518331462</v>
       </c>
       <c r="I31" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="J31" t="n">
-        <v>167.6715158422849</v>
+        <v>167.6715158422856</v>
       </c>
       <c r="K31" t="n">
-        <v>418.8953554296413</v>
+        <v>418.8953554296427</v>
       </c>
       <c r="L31" t="n">
-        <v>782.6918105166175</v>
+        <v>782.6918105166195</v>
       </c>
       <c r="M31" t="n">
-        <v>1174.085512754647</v>
+        <v>1174.085512754649</v>
       </c>
       <c r="N31" t="n">
-        <v>1562.730546098991</v>
+        <v>1562.730546098995</v>
       </c>
       <c r="O31" t="n">
-        <v>1909.296801657885</v>
+        <v>1891.508724052424</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.140958730024</v>
+        <v>2171.352881124564</v>
       </c>
       <c r="Q31" t="n">
-        <v>2296.19983391557</v>
+        <v>2296.19983391556</v>
       </c>
       <c r="R31" t="n">
-        <v>2254.565128778475</v>
+        <v>2254.565128778465</v>
       </c>
       <c r="S31" t="n">
-        <v>2111.074996710679</v>
+        <v>2111.074996710669</v>
       </c>
       <c r="T31" t="n">
-        <v>1937.504133385582</v>
+        <v>1937.504133385573</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.597018616602</v>
+        <v>1696.597018616595</v>
       </c>
       <c r="V31" t="n">
-        <v>1490.108282516093</v>
+        <v>1490.108282516086</v>
       </c>
       <c r="W31" t="n">
-        <v>1248.886864584509</v>
+        <v>1248.886864584503</v>
       </c>
       <c r="X31" t="n">
-        <v>1069.093065791869</v>
+        <v>1069.093065791863</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.4962387537159</v>
+        <v>896.4962387537108</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1904.744359613462</v>
+        <v>1904.744359613464</v>
       </c>
       <c r="C32" t="n">
-        <v>1603.652891110493</v>
+        <v>1603.652891110494</v>
       </c>
       <c r="D32" t="n">
-        <v>1313.258240941186</v>
+        <v>1313.258240941187</v>
       </c>
       <c r="E32" t="n">
-        <v>995.3410367803847</v>
+        <v>995.3410367803851</v>
       </c>
       <c r="F32" t="n">
         <v>652.2261804282202</v>
       </c>
       <c r="G32" t="n">
-        <v>305.0247787106589</v>
+        <v>305.0247787106595</v>
       </c>
       <c r="H32" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="I32" t="n">
-        <v>75.31222675686922</v>
+        <v>100.6714808552102</v>
       </c>
       <c r="J32" t="n">
-        <v>330.7117722894326</v>
+        <v>356.0710263877731</v>
       </c>
       <c r="K32" t="n">
-        <v>664.531145979279</v>
+        <v>756.4108146511571</v>
       </c>
       <c r="L32" t="n">
-        <v>1147.648277696065</v>
+        <v>1273.965442473103</v>
       </c>
       <c r="M32" t="n">
-        <v>1747.700596941527</v>
+        <v>1807.497347145028</v>
       </c>
       <c r="N32" t="n">
-        <v>2360.999828573847</v>
+        <v>2360.999828573854</v>
       </c>
       <c r="O32" t="n">
-        <v>2930.492714026722</v>
+        <v>2930.492714026728</v>
       </c>
       <c r="P32" t="n">
-        <v>3391.787494957438</v>
+        <v>3391.787494957444</v>
       </c>
       <c r="Q32" t="n">
-        <v>3640.073856713121</v>
+        <v>3640.073856713126</v>
       </c>
       <c r="R32" t="n">
-        <v>3765.611337843461</v>
+        <v>3765.611337843466</v>
       </c>
       <c r="S32" t="n">
-        <v>3723.191717808</v>
+        <v>3723.191717808004</v>
       </c>
       <c r="T32" t="n">
-        <v>3585.085018629665</v>
+        <v>3585.085018629669</v>
       </c>
       <c r="U32" t="n">
-        <v>3399.425590340944</v>
+        <v>3399.425590340948</v>
       </c>
       <c r="V32" t="n">
-        <v>3136.233751434817</v>
+        <v>3136.233751434821</v>
       </c>
       <c r="W32" t="n">
-        <v>2851.336144602146</v>
+        <v>2851.336144602149</v>
       </c>
       <c r="X32" t="n">
-        <v>2545.741434778509</v>
+        <v>2545.741434778512</v>
       </c>
       <c r="Y32" t="n">
-        <v>2223.47315124014</v>
+        <v>2223.473151240143</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>950.3439648057943</v>
+        <v>950.3439648057936</v>
       </c>
       <c r="C33" t="n">
-        <v>775.8909355246673</v>
+        <v>775.8909355246666</v>
       </c>
       <c r="D33" t="n">
-        <v>626.9565258634161</v>
+        <v>626.9565258634153</v>
       </c>
       <c r="E33" t="n">
-        <v>467.7190708579606</v>
+        <v>467.7190708579598</v>
       </c>
       <c r="F33" t="n">
-        <v>321.1845128848456</v>
+        <v>321.1845128848448</v>
       </c>
       <c r="G33" t="n">
-        <v>184.8214127174641</v>
+        <v>184.8214127174629</v>
       </c>
       <c r="H33" t="n">
-        <v>94.31951835533164</v>
+        <v>94.31951835533043</v>
       </c>
       <c r="I33" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="J33" t="n">
-        <v>168.9894962474868</v>
+        <v>168.9894962474866</v>
       </c>
       <c r="K33" t="n">
-        <v>407.2536952278339</v>
+        <v>407.2536952278337</v>
       </c>
       <c r="L33" t="n">
-        <v>773.9518555404993</v>
+        <v>773.951855540499</v>
       </c>
       <c r="M33" t="n">
         <v>1221.228180762815</v>
@@ -6795,28 +6795,28 @@
         <v>2105.712503735324</v>
       </c>
       <c r="P33" t="n">
-        <v>2416.212095211427</v>
+        <v>2416.212095211426</v>
       </c>
       <c r="Q33" t="n">
-        <v>2573.853652858027</v>
+        <v>2573.853652858026</v>
       </c>
       <c r="R33" t="n">
-        <v>2573.709299450542</v>
+        <v>2573.709299450541</v>
       </c>
       <c r="S33" t="n">
-        <v>2444.271412944022</v>
+        <v>2444.271412944021</v>
       </c>
       <c r="T33" t="n">
-        <v>2251.628412621878</v>
+        <v>2251.628412621877</v>
       </c>
       <c r="U33" t="n">
         <v>2023.560565756293</v>
       </c>
       <c r="V33" t="n">
-        <v>1788.408457524551</v>
+        <v>1788.40845752455</v>
       </c>
       <c r="W33" t="n">
-        <v>1534.171100796349</v>
+        <v>1534.171100796348</v>
       </c>
       <c r="X33" t="n">
         <v>1326.319600590816</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>625.3164517043915</v>
+        <v>625.3164517043945</v>
       </c>
       <c r="C34" t="n">
-        <v>524.2513172139277</v>
+        <v>524.2513172139303</v>
       </c>
       <c r="D34" t="n">
-        <v>442.005726239035</v>
+        <v>442.0057262390372</v>
       </c>
       <c r="E34" t="n">
-        <v>361.963681094085</v>
+        <v>361.9636810940868</v>
       </c>
       <c r="F34" t="n">
-        <v>282.9447820336178</v>
+        <v>282.9447820336192</v>
       </c>
       <c r="G34" t="n">
-        <v>183.1129938457798</v>
+        <v>183.1129938457808</v>
       </c>
       <c r="H34" t="n">
-        <v>104.7668555010808</v>
+        <v>104.7668555010813</v>
       </c>
       <c r="I34" t="n">
-        <v>75.31222675686922</v>
+        <v>75.31222675686932</v>
       </c>
       <c r="J34" t="n">
-        <v>153.6553948678467</v>
+        <v>153.6553948678463</v>
       </c>
       <c r="K34" t="n">
-        <v>424.162992390261</v>
+        <v>318.4866637090543</v>
       </c>
       <c r="L34" t="n">
-        <v>807.2432054122951</v>
+        <v>701.5668767310879</v>
       </c>
       <c r="M34" t="n">
-        <v>1124.114938273009</v>
+        <v>935.5197726038232</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.043729552411</v>
+        <v>1173.349024207208</v>
       </c>
       <c r="O34" t="n">
-        <v>1736.482493344139</v>
+        <v>1538.136466869272</v>
       </c>
       <c r="P34" t="n">
-        <v>1901.953910670436</v>
+        <v>1837.264381876469</v>
       </c>
       <c r="Q34" t="n">
-        <v>1981.395092602515</v>
+        <v>1981.395092602521</v>
       </c>
       <c r="R34" t="n">
-        <v>1959.435683797486</v>
+        <v>1959.435683797491</v>
       </c>
       <c r="S34" t="n">
-        <v>1835.620848061755</v>
+        <v>1835.620848061761</v>
       </c>
       <c r="T34" t="n">
-        <v>1681.725281068724</v>
+        <v>1681.725281068729</v>
       </c>
       <c r="U34" t="n">
-        <v>1460.493462631811</v>
+        <v>1460.493462631816</v>
       </c>
       <c r="V34" t="n">
-        <v>1273.680022863367</v>
+        <v>1273.680022863372</v>
       </c>
       <c r="W34" t="n">
-        <v>1052.133901263849</v>
+        <v>1052.133901263854</v>
       </c>
       <c r="X34" t="n">
-        <v>892.015398803275</v>
+        <v>892.0153988032789</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.0938680971881</v>
+        <v>739.0938680971915</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6971,7 +6971,7 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
@@ -7090,55 +7090,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>155.2189959588246</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>253.5298502264949</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572062</v>
+        <v>505.9475671746761</v>
       </c>
       <c r="M37" t="n">
-        <v>791.230645356404</v>
+        <v>770.0879214996978</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.247355412075</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O37" t="n">
-        <v>1293.873577656089</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P37" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830734</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7208,16 +7208,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7263,40 +7263,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226766</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970709</v>
+        <v>79.653846789707</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832014</v>
+        <v>253.5298502264962</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313825</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564042</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862517</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,7 +7409,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810559</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
         <v>312.3844025601599</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226768</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J43" t="n">
-        <v>79.6538467897071</v>
+        <v>79.653846789707</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832014</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L43" t="n">
-        <v>430.3824180055586</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M43" t="n">
-        <v>694.5227723305804</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N43" t="n">
-        <v>962.5394823862518</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
-        <v>1197.165704630266</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304658</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673486</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431748</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7713,13 +7713,13 @@
         <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7801,31 +7801,31 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226768</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962284</v>
+        <v>79.6538467897071</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>262.1948921089717</v>
       </c>
       <c r="L46" t="n">
-        <v>409.2396941488518</v>
+        <v>514.6126090571529</v>
       </c>
       <c r="M46" t="n">
-        <v>673.3800484738736</v>
+        <v>778.7529633821747</v>
       </c>
       <c r="N46" t="n">
-        <v>941.396758529545</v>
+        <v>950.0618004120222</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.022980773559</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552141</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
@@ -10036,7 +10036,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>144.5069463845355</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
@@ -10045,7 +10045,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>145.0739112088514</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10282,13 +10282,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>145.0739112088476</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.37520322073219</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>83.75640099795737</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>161.9683624952892</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>39.81459151592147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>315.3019661272263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>331.9594444284805</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>361.1685289733151</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>246.8666554924501</v>
+        <v>246.8666554924504</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>277.7813328263533</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.12614027195545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.89262758449803</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.89262758450515</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>332.7629160196996</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>331.9594444284808</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.35364162345199</v>
       </c>
       <c r="G14" t="n">
-        <v>319.8943117254501</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>246.8666554924508</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>277.7813328263534</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.2670130122721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.89262758451297</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>33.89262758449871</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>35.88199514151632</v>
+        <v>265.949533383545</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>265.9495333835456</v>
       </c>
       <c r="H20" t="n">
-        <v>199.1528609081267</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>66.79667247541887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>272.6996071624346</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>272.6996071624226</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>69.41822978785498</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24734,10 +24734,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.2813773745786</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>272.6996071624197</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873018.0870744863</v>
+        <v>873018.0870744858</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873018.0870744862</v>
+        <v>873018.0870744853</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919853.0150579964</v>
+        <v>919853.0150579966</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934214.1961022296</v>
+        <v>934214.1961022305</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934214.1961022296</v>
+        <v>934214.1961022306</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952069.9241298557</v>
+        <v>952069.9241298558</v>
       </c>
     </row>
     <row r="13">
@@ -26317,43 +26317,43 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491602.0170210077</v>
+        <v>491602.0170210075</v>
       </c>
       <c r="E2" t="n">
-        <v>447531.9067560931</v>
+        <v>447531.9067560926</v>
       </c>
       <c r="F2" t="n">
-        <v>447531.9067560931</v>
+        <v>447531.9067560924</v>
       </c>
       <c r="G2" t="n">
-        <v>479923.3122041723</v>
+        <v>479923.3122041727</v>
       </c>
       <c r="H2" t="n">
-        <v>479923.3122041725</v>
+        <v>479923.3122041727</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185708</v>
       </c>
       <c r="J2" t="n">
-        <v>479600.9286804918</v>
+        <v>479600.928680492</v>
       </c>
       <c r="K2" t="n">
-        <v>479600.9286804919</v>
+        <v>479600.928680492</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185707</v>
       </c>
       <c r="N2" t="n">
         <v>492625.0619185707</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185706</v>
+        <v>492625.0619185708</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185708</v>
+        <v>492625.0619185707</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161531.2365676486</v>
+        <v>161531.2365676483</v>
       </c>
       <c r="E3" t="n">
-        <v>948883.0584150399</v>
+        <v>948883.05841504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38171.03566745861</v>
+        <v>38171.03566745928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58418.20936179646</v>
+        <v>58418.20936179647</v>
       </c>
       <c r="J3" t="n">
-        <v>28781.20082240118</v>
+        <v>28781.20082240154</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53753.87036245504</v>
+        <v>53753.87036245469</v>
       </c>
       <c r="M3" t="n">
         <v>187629.9396658821</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401875.0986108218</v>
+        <v>401875.0986108219</v>
       </c>
       <c r="E4" t="n">
-        <v>70951.25696221241</v>
+        <v>70951.25696221208</v>
       </c>
       <c r="F4" t="n">
-        <v>70951.25696221234</v>
+        <v>70951.25696221179</v>
       </c>
       <c r="G4" t="n">
-        <v>100213.0123637722</v>
+        <v>100213.0123637723</v>
       </c>
       <c r="H4" t="n">
-        <v>100213.0123637722</v>
+        <v>100213.0123637723</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="J4" t="n">
-        <v>83378.70954493227</v>
+        <v>83378.70954493264</v>
       </c>
       <c r="K4" t="n">
-        <v>83378.70954493218</v>
+        <v>83378.70954493288</v>
       </c>
       <c r="L4" t="n">
-        <v>95053.44715925692</v>
+        <v>95053.44715925695</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
         <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657708</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>37739.37416199961</v>
       </c>
       <c r="E5" t="n">
-        <v>73291.3407365974</v>
+        <v>73291.34073659737</v>
       </c>
       <c r="F5" t="n">
-        <v>73291.34073659738</v>
+        <v>73291.34073659733</v>
       </c>
       <c r="G5" t="n">
         <v>77302.59173350687</v>
       </c>
       <c r="H5" t="n">
-        <v>77302.59173350685</v>
+        <v>77302.59173350687</v>
       </c>
       <c r="I5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="J5" t="n">
+        <v>85005.6754050641</v>
+      </c>
+      <c r="K5" t="n">
+        <v>85005.67540506412</v>
+      </c>
+      <c r="L5" t="n">
+        <v>86643.21706753108</v>
+      </c>
+      <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
-      <c r="J5" t="n">
-        <v>85005.67540506399</v>
-      </c>
-      <c r="K5" t="n">
-        <v>85005.67540506399</v>
-      </c>
-      <c r="L5" t="n">
-        <v>86643.21706753103</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>82518.59730624984</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.75670150821</v>
+        <v>-9682.170279376322</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.75670150821</v>
+        <v>-9682.170279376322</v>
       </c>
       <c r="D6" t="n">
-        <v>-109543.6923194623</v>
+        <v>-109547.9550065354</v>
       </c>
       <c r="E6" t="n">
-        <v>-645593.7493577566</v>
+        <v>-645781.6375042673</v>
       </c>
       <c r="F6" t="n">
-        <v>303289.3090572834</v>
+        <v>303101.4209107734</v>
       </c>
       <c r="G6" t="n">
-        <v>264236.6724394346</v>
+        <v>264183.748482291</v>
       </c>
       <c r="H6" t="n">
-        <v>302407.7081068933</v>
+        <v>302354.7841497503</v>
       </c>
       <c r="I6" t="n">
-        <v>257914.1174239472</v>
+        <v>257914.1174239474</v>
       </c>
       <c r="J6" t="n">
-        <v>282435.3429080943</v>
+        <v>282381.0756862684</v>
       </c>
       <c r="K6" t="n">
-        <v>311216.5437304957</v>
+        <v>311162.2765086698</v>
       </c>
       <c r="L6" t="n">
-        <v>257174.5273293269</v>
+        <v>257174.5273293273</v>
       </c>
       <c r="M6" t="n">
-        <v>128702.3871198616</v>
+        <v>128702.3871198617</v>
       </c>
       <c r="N6" t="n">
         <v>316332.3267857439</v>
       </c>
       <c r="O6" t="n">
-        <v>316332.3267857436</v>
+        <v>316332.3267857439</v>
       </c>
       <c r="P6" t="n">
-        <v>316332.3267857439</v>
+        <v>316332.3267857438</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="F2" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H2" t="n">
+        <v>97.68472022810505</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97.68472022810505</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47.71379458432381</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.713794584324</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67.19233795306826</v>
+      </c>
+      <c r="M2" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>97.68472022810494</v>
       </c>
-      <c r="J2" t="n">
-        <v>47.71379458432336</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.71379458432336</v>
-      </c>
-      <c r="L2" t="n">
-        <v>67.19233795306867</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810502</v>
-      </c>
       <c r="O2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810504</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>188.6134936697072</v>
+        <v>188.6134936697068</v>
       </c>
       <c r="E3" t="n">
         <v>1035.616620887045</v>
@@ -26805,19 +26805,19 @@
         <v>765.0311291663278</v>
       </c>
       <c r="H4" t="n">
-        <v>765.0311291663277</v>
+        <v>765.0311291663278</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>941.4028344608653</v>
+        <v>941.4028344608665</v>
       </c>
       <c r="K4" t="n">
-        <v>941.4028344608653</v>
+        <v>941.4028344608665</v>
       </c>
       <c r="L4" t="n">
-        <v>941.4028344608653</v>
+        <v>941.4028344608665</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.71379458432349</v>
+        <v>47.7137945843241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.1923379530688</v>
+        <v>67.19233795306836</v>
       </c>
       <c r="M2" t="n">
-        <v>30.49238227503628</v>
+        <v>30.49238227503676</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>188.6134936697072</v>
+        <v>188.6134936697068</v>
       </c>
       <c r="E3" t="n">
-        <v>847.0031272173378</v>
+        <v>847.0031272173381</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.04298685767779e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>66.37032623596497</v>
+        <v>66.37032623596474</v>
       </c>
       <c r="J4" t="n">
-        <v>110.0013790585726</v>
+        <v>110.001379058574</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>655.0297501077553</v>
+        <v>655.029750107754</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.71379458432349</v>
+        <v>47.7137945843241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>331.7094234542802</v>
       </c>
       <c r="I8" t="n">
-        <v>181.2436414711038</v>
+        <v>181.2436414711039</v>
       </c>
       <c r="J8" t="n">
-        <v>116.690790925282</v>
+        <v>116.6907909252821</v>
       </c>
       <c r="K8" t="n">
-        <v>123.6382180986971</v>
+        <v>123.6382180986973</v>
       </c>
       <c r="L8" t="n">
-        <v>116.1096354633246</v>
+        <v>116.1096354633249</v>
       </c>
       <c r="M8" t="n">
-        <v>97.20501063297738</v>
+        <v>97.20501063297766</v>
       </c>
       <c r="N8" t="n">
-        <v>94.11747682585712</v>
+        <v>94.11747682585741</v>
       </c>
       <c r="O8" t="n">
-        <v>102.342425365237</v>
+        <v>102.3424253652372</v>
       </c>
       <c r="P8" t="n">
-        <v>122.1963880906626</v>
+        <v>122.1963880906628</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.4237384592752</v>
+        <v>140.4237384592754</v>
       </c>
       <c r="R8" t="n">
-        <v>167.9554177267764</v>
+        <v>167.9554177267765</v>
       </c>
       <c r="S8" t="n">
         <v>191.7415570756988</v>
@@ -27950,31 +27950,31 @@
         <v>108.3172658113956</v>
       </c>
       <c r="I9" t="n">
-        <v>85.55430523295092</v>
+        <v>85.55430523295095</v>
       </c>
       <c r="J9" t="n">
-        <v>88.50816188233496</v>
+        <v>88.50816188233505</v>
       </c>
       <c r="K9" t="n">
-        <v>72.33027863060795</v>
+        <v>72.33027863060809</v>
       </c>
       <c r="L9" t="n">
-        <v>50.46654011837555</v>
+        <v>50.46654011837573</v>
       </c>
       <c r="M9" t="n">
-        <v>39.33967987202792</v>
+        <v>39.33967987202813</v>
       </c>
       <c r="N9" t="n">
-        <v>25.82669735578644</v>
+        <v>25.82669735578666</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0706200000991</v>
+        <v>46.0706200000993</v>
       </c>
       <c r="P9" t="n">
-        <v>56.50408394837069</v>
+        <v>56.50408394837085</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.19491446561436</v>
+        <v>88.19491446561446</v>
       </c>
       <c r="R9" t="n">
         <v>120.4907056961491</v>
@@ -28032,25 +28032,25 @@
         <v>145.2220579262847</v>
       </c>
       <c r="J10" t="n">
-        <v>102.9487470087516</v>
+        <v>102.9487470087517</v>
       </c>
       <c r="K10" t="n">
-        <v>89.49718523448854</v>
+        <v>89.49718523448863</v>
       </c>
       <c r="L10" t="n">
-        <v>84.31770783083843</v>
+        <v>84.31770783083853</v>
       </c>
       <c r="M10" t="n">
-        <v>85.6100057288057</v>
+        <v>85.61000572880582</v>
       </c>
       <c r="N10" t="n">
-        <v>75.63749628585313</v>
+        <v>75.63749628585325</v>
       </c>
       <c r="O10" t="n">
-        <v>90.38174173747217</v>
+        <v>90.38174173747225</v>
       </c>
       <c r="P10" t="n">
-        <v>96.59171028223314</v>
+        <v>96.59171028223322</v>
       </c>
       <c r="Q10" t="n">
         <v>123.0243640853201</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="C11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="D11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="E11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="F11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="G11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="H11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="I11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="T11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="U11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="V11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="W11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="X11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="Y11" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.02152895948342</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>18.56923394879047</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="H12" t="n">
-        <v>49.97092564378156</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.8281302456292</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.375835234935522</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28226,10 +28226,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>49.97092564378156</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>49.97092564378156</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="C13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="D13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="E13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="F13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="G13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="H13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="I13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="J13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="K13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="L13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="M13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="N13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="O13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="P13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="R13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="S13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="T13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="U13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="V13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="W13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="X13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378124</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="C14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="D14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="E14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="F14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="G14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="H14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="I14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="T14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="U14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="V14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="W14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="X14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49.97092564378152</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>18.56923394879215</v>
       </c>
       <c r="G15" t="n">
-        <v>41.39736419441864</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="H15" t="n">
-        <v>49.97092564378152</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.82813024562923</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>49.97092564378152</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="C16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="D16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="E16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="F16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="G16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="H16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="I16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="J16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="K16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="L16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="M16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="N16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="O16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="P16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="R16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="S16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="T16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="U16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="V16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="W16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="X16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.97092564378152</v>
+        <v>49.97092564378095</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I17" t="n">
         <v>49.97092564378158</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="18">
@@ -28643,19 +28643,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.62542089765935</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>93.62542089765911</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M19" t="n">
-        <v>85.98044711370463</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>85.98044711370382</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I20" t="n">
         <v>49.97092564378158</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.903446464872843</v>
       </c>
       <c r="H21" t="n">
-        <v>86.2495856627236</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.37583523493555</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N22" t="n">
-        <v>85.98044711370414</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810502</v>
+        <v>85.98044711370382</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810494</v>
+        <v>77.66073332242519</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>77.66073332242721</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="C26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="D26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="E26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="F26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="G26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="H26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="I26" t="n">
-        <v>47.71379458432504</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="J26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="K26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="L26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="M26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="N26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="O26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="P26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="Q26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="R26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="S26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="T26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="U26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="V26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="W26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="X26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
     </row>
     <row r="27">
@@ -29402,7 +29402,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="C28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="D28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="E28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="F28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="G28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="H28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="I28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="J28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="K28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="L28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="M28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="N28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="O28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="P28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="R28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="S28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="T28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="U28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="V28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="W28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="X28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.71379458432336</v>
+        <v>47.71379458432381</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="C29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="D29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="E29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="F29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="G29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="H29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="I29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="J29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="K29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="L29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="M29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="N29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="O29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="P29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="Q29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="R29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="S29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="T29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="U29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="V29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="W29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="X29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.485745522397337e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="C31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="D31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="E31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="F31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="G31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="H31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="I31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="J31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="K31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="L31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="M31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="N31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="O31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="P31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="R31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="S31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="T31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="U31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="V31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="W31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="X31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.71379458432336</v>
+        <v>47.713794584324</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="C32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="D32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="E32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="F32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="G32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="H32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="J32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="L32" t="n">
-        <v>32.40698835189585</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="M32" t="n">
-        <v>67.19233795306867</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>67.19233795306867</v>
+        <v>6.79158017176178</v>
       </c>
       <c r="O32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="P32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="S32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="T32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="U32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="V32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="W32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="X32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="Y32" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.485745522397337e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="C34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="D34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="E34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="F34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="G34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="H34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="I34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="J34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="K34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="L34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="M34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="N34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="O34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="P34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="R34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="S34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="T34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="U34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="V34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="W34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="X34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.19233795306867</v>
+        <v>67.19233795306826</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415912</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.32843350416044</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350416053</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P40" t="n">
-        <v>76.32843350415916</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="41">
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K41" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810504</v>
+        <v>76.32843350416047</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>76.32843350415871</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30873,22 +30873,22 @@
         <v>97.68472022810504</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>85.08100106221642</v>
       </c>
       <c r="L46" t="n">
-        <v>77.6607333224257</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="M46" t="n">
         <v>97.68472022810504</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>97.68472022810504</v>
@@ -30900,7 +30900,7 @@
         <v>97.68472022810504</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810504</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810504</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7582452006822394</v>
+        <v>0.7582452006822378</v>
       </c>
       <c r="H8" t="n">
-        <v>7.765378661486986</v>
+        <v>7.76537866148697</v>
       </c>
       <c r="I8" t="n">
-        <v>29.23224809930206</v>
+        <v>29.232248099302</v>
       </c>
       <c r="J8" t="n">
-        <v>64.35511360140427</v>
+        <v>64.35511360140414</v>
       </c>
       <c r="K8" t="n">
-        <v>96.45163294628348</v>
+        <v>96.45163294628328</v>
       </c>
       <c r="L8" t="n">
-        <v>119.6567795066626</v>
+        <v>119.6567795066623</v>
       </c>
       <c r="M8" t="n">
-        <v>133.1412225942954</v>
+        <v>133.1412225942951</v>
       </c>
       <c r="N8" t="n">
-        <v>135.2955867707338</v>
+        <v>135.2955867707335</v>
       </c>
       <c r="O8" t="n">
-        <v>127.7557860564498</v>
+        <v>127.7557860564495</v>
       </c>
       <c r="P8" t="n">
-        <v>109.036607664607</v>
+        <v>109.0366076646067</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.88195141517424</v>
+        <v>81.88195141517407</v>
       </c>
       <c r="R8" t="n">
-        <v>47.63012008735576</v>
+        <v>47.63012008735566</v>
       </c>
       <c r="S8" t="n">
-        <v>17.27851251054655</v>
+        <v>17.27851251054651</v>
       </c>
       <c r="T8" t="n">
-        <v>3.319218365986505</v>
+        <v>3.319218365986498</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06065961605457914</v>
+        <v>0.06065961605457901</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4056969486480494</v>
+        <v>0.4056969486480486</v>
       </c>
       <c r="H9" t="n">
-        <v>3.918178425100899</v>
+        <v>3.918178425100891</v>
       </c>
       <c r="I9" t="n">
-        <v>13.96807476704907</v>
+        <v>13.96807476704904</v>
       </c>
       <c r="J9" t="n">
-        <v>38.32946478433173</v>
+        <v>38.32946478433165</v>
       </c>
       <c r="K9" t="n">
-        <v>65.51116034375104</v>
+        <v>65.5111603437509</v>
       </c>
       <c r="L9" t="n">
-        <v>88.08783966149863</v>
+        <v>88.08783966149845</v>
       </c>
       <c r="M9" t="n">
-        <v>102.7943540499904</v>
+        <v>102.7943540499902</v>
       </c>
       <c r="N9" t="n">
-        <v>105.5150147275469</v>
+        <v>105.5150147275466</v>
       </c>
       <c r="O9" t="n">
-        <v>96.52562444434534</v>
+        <v>96.52562444434514</v>
       </c>
       <c r="P9" t="n">
-        <v>77.47032346595955</v>
+        <v>77.4703234659594</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.78685962040716</v>
+        <v>51.78685962040705</v>
       </c>
       <c r="R9" t="n">
-        <v>25.18879826781487</v>
+        <v>25.18879826781482</v>
       </c>
       <c r="S9" t="n">
-        <v>7.535642883879334</v>
+        <v>7.535642883879318</v>
       </c>
       <c r="T9" t="n">
-        <v>1.635243402664725</v>
+        <v>1.635243402664722</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02669058872684537</v>
+        <v>0.02669058872684531</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3401226935027507</v>
+        <v>0.3401226935027499</v>
       </c>
       <c r="H10" t="n">
-        <v>3.023999947688094</v>
+        <v>3.023999947688088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.22841700097363</v>
+        <v>10.22841700097361</v>
       </c>
       <c r="J10" t="n">
-        <v>24.04667443064447</v>
+        <v>24.04667443064442</v>
       </c>
       <c r="K10" t="n">
-        <v>39.51607293604684</v>
+        <v>39.51607293604675</v>
       </c>
       <c r="L10" t="n">
-        <v>50.56696845039986</v>
+        <v>50.56696845039976</v>
       </c>
       <c r="M10" t="n">
-        <v>53.31577821879935</v>
+        <v>53.31577821879924</v>
       </c>
       <c r="N10" t="n">
-        <v>52.04804817938005</v>
+        <v>52.04804817937994</v>
       </c>
       <c r="O10" t="n">
-        <v>48.07479671437063</v>
+        <v>48.07479671437053</v>
       </c>
       <c r="P10" t="n">
-        <v>41.13629376691448</v>
+        <v>41.13629376691439</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.48063754412578</v>
+        <v>28.48063754412573</v>
       </c>
       <c r="R10" t="n">
-        <v>15.29315310967822</v>
+        <v>15.29315310967819</v>
       </c>
       <c r="S10" t="n">
-        <v>5.927410940407025</v>
+        <v>5.927410940407013</v>
       </c>
       <c r="T10" t="n">
-        <v>1.453251508602661</v>
+        <v>1.453251508602659</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01855214691833187</v>
+        <v>0.01855214691833184</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.163282898038369</v>
+        <v>4.163282898038368</v>
       </c>
       <c r="H14" t="n">
-        <v>42.63722097953546</v>
+        <v>42.63722097953544</v>
       </c>
       <c r="I14" t="n">
-        <v>160.5049639266244</v>
+        <v>160.5049639266243</v>
       </c>
       <c r="J14" t="n">
-        <v>353.3534318673843</v>
+        <v>353.3534318673842</v>
       </c>
       <c r="K14" t="n">
-        <v>529.5851969413485</v>
+        <v>529.5851969413484</v>
       </c>
       <c r="L14" t="n">
-        <v>656.9972659321904</v>
+        <v>656.9972659321903</v>
       </c>
       <c r="M14" t="n">
-        <v>731.0360481701803</v>
+        <v>731.03604817018</v>
       </c>
       <c r="N14" t="n">
-        <v>742.8649757042318</v>
+        <v>742.8649757042316</v>
       </c>
       <c r="O14" t="n">
-        <v>701.4663313868627</v>
+        <v>701.4663313868625</v>
       </c>
       <c r="P14" t="n">
-        <v>598.6852848415404</v>
+        <v>598.6852848415402</v>
       </c>
       <c r="Q14" t="n">
-        <v>449.5877160555412</v>
+        <v>449.5877160555411</v>
       </c>
       <c r="R14" t="n">
-        <v>261.5218193439029</v>
+        <v>261.5218193439028</v>
       </c>
       <c r="S14" t="n">
-        <v>94.87080903904942</v>
+        <v>94.8708090390494</v>
       </c>
       <c r="T14" t="n">
-        <v>18.22477088616297</v>
+        <v>18.22477088616296</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3330626318430694</v>
+        <v>0.3330626318430693</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>2.227552731719304</v>
       </c>
       <c r="H15" t="n">
-        <v>21.51346980371013</v>
+        <v>21.51346980371012</v>
       </c>
       <c r="I15" t="n">
-        <v>76.6942497543708</v>
+        <v>76.69424975437077</v>
       </c>
       <c r="J15" t="n">
         <v>210.4548833068664</v>
       </c>
       <c r="K15" t="n">
-        <v>359.7009163320598</v>
+        <v>359.7009163320597</v>
       </c>
       <c r="L15" t="n">
-        <v>483.6622718586148</v>
+        <v>483.6622718586147</v>
       </c>
       <c r="M15" t="n">
-        <v>564.4110583834395</v>
+        <v>564.4110583834394</v>
       </c>
       <c r="N15" t="n">
-        <v>579.349339641329</v>
+        <v>579.3493396413289</v>
       </c>
       <c r="O15" t="n">
-        <v>529.9914606911276</v>
+        <v>529.9914606911275</v>
       </c>
       <c r="P15" t="n">
-        <v>425.3648720771714</v>
+        <v>425.3648720771713</v>
       </c>
       <c r="Q15" t="n">
-        <v>284.3451522103449</v>
+        <v>284.3451522103448</v>
       </c>
       <c r="R15" t="n">
         <v>138.3036687290284</v>
       </c>
       <c r="S15" t="n">
-        <v>41.37581499487389</v>
+        <v>41.37581499487388</v>
       </c>
       <c r="T15" t="n">
-        <v>8.978600703728246</v>
+        <v>8.978600703728244</v>
       </c>
       <c r="U15" t="n">
         <v>0.1465495218236385</v>
@@ -32145,28 +32145,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.867505381927458</v>
+        <v>1.867505381927457</v>
       </c>
       <c r="H16" t="n">
         <v>16.6038205775005</v>
       </c>
       <c r="I16" t="n">
-        <v>56.16098003105484</v>
+        <v>56.16098003105483</v>
       </c>
       <c r="J16" t="n">
-        <v>132.0326305022713</v>
+        <v>132.0326305022712</v>
       </c>
       <c r="K16" t="n">
-        <v>216.9701707366628</v>
+        <v>216.9701707366627</v>
       </c>
       <c r="L16" t="n">
-        <v>277.6471183276514</v>
+        <v>277.6471183276513</v>
       </c>
       <c r="M16" t="n">
-        <v>292.739957277956</v>
+        <v>292.7399572779559</v>
       </c>
       <c r="N16" t="n">
-        <v>285.7792553998629</v>
+        <v>285.7792553998628</v>
       </c>
       <c r="O16" t="n">
         <v>263.9633970746193</v>
@@ -32178,13 +32178,13 @@
         <v>156.3781097539438</v>
       </c>
       <c r="R16" t="n">
-        <v>83.96983290012004</v>
+        <v>83.96983290012002</v>
       </c>
       <c r="S16" t="n">
-        <v>32.54552561049942</v>
+        <v>32.54552561049941</v>
       </c>
       <c r="T16" t="n">
-        <v>7.979341177326409</v>
+        <v>7.979341177326408</v>
       </c>
       <c r="U16" t="n">
         <v>0.101863929923316</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J11" t="n">
         <v>172.307527340698</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.64437602938006</v>
+        <v>88.64437602937974</v>
       </c>
       <c r="K13" t="n">
-        <v>244.6716045545615</v>
+        <v>244.6716045545612</v>
       </c>
       <c r="L13" t="n">
-        <v>355.2080692317491</v>
+        <v>355.2080692317488</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2947598835781</v>
+        <v>382.2947598835778</v>
       </c>
       <c r="N13" t="n">
-        <v>379.8823534228731</v>
+        <v>379.8823534228727</v>
       </c>
       <c r="O13" t="n">
-        <v>338.5194506324406</v>
+        <v>338.5194506324402</v>
       </c>
       <c r="P13" t="n">
-        <v>273.1157721919741</v>
+        <v>273.1157721919737</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.186992146031</v>
+        <v>120.1869921460306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>172.307527340698</v>
       </c>
       <c r="K14" t="n">
-        <v>309.495345896368</v>
+        <v>309.4953458963678</v>
       </c>
       <c r="L14" t="n">
-        <v>421.2308509622032</v>
+        <v>421.2308509622031</v>
       </c>
       <c r="M14" t="n">
-        <v>500.6898149429076</v>
+        <v>500.6898149429073</v>
       </c>
       <c r="N14" t="n">
-        <v>513.451912107641</v>
+        <v>513.4519121076407</v>
       </c>
       <c r="O14" t="n">
-        <v>471.368119965176</v>
+        <v>471.3681199651758</v>
       </c>
       <c r="P14" t="n">
-        <v>367.4522890862708</v>
+        <v>367.4522890862707</v>
       </c>
       <c r="Q14" t="n">
-        <v>227.2820261810917</v>
+        <v>227.2820261810916</v>
       </c>
       <c r="R14" t="n">
-        <v>45.93628152977078</v>
+        <v>45.93628152977072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83.61725664019971</v>
+        <v>83.61725664019968</v>
       </c>
       <c r="K15" t="n">
-        <v>221.8594773577008</v>
+        <v>221.8594773577007</v>
       </c>
       <c r="L15" t="n">
-        <v>345.1078920787406</v>
+        <v>345.1078920787405</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2770244614211</v>
+        <v>422.277024461421</v>
       </c>
       <c r="N15" t="n">
-        <v>448.0076275579958</v>
+        <v>448.0076275579956</v>
       </c>
       <c r="O15" t="n">
-        <v>387.3952162466832</v>
+        <v>387.395216246683</v>
       </c>
       <c r="P15" t="n">
-        <v>291.3904646628412</v>
+        <v>291.3904646628411</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.3633781243234</v>
+        <v>144.3633781243233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.64437602938003</v>
+        <v>88.64437602937943</v>
       </c>
       <c r="K16" t="n">
-        <v>244.6716045545615</v>
+        <v>244.6716045545608</v>
       </c>
       <c r="L16" t="n">
-        <v>355.2080692317491</v>
+        <v>355.2080692317484</v>
       </c>
       <c r="M16" t="n">
-        <v>382.2947598835781</v>
+        <v>382.2947598835774</v>
       </c>
       <c r="N16" t="n">
-        <v>379.8823534228731</v>
+        <v>379.8823534228724</v>
       </c>
       <c r="O16" t="n">
-        <v>338.5194506324405</v>
+        <v>338.5194506324399</v>
       </c>
       <c r="P16" t="n">
-        <v>273.115772191974</v>
+        <v>273.1157721919734</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.1869921460309</v>
+        <v>120.1869921460303</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>102.7219292909801</v>
+        <v>102.7219292909802</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6416327942324</v>
+        <v>87.95691256612736</v>
       </c>
       <c r="L19" t="n">
-        <v>240.447162274518</v>
+        <v>240.4471622745181</v>
       </c>
       <c r="M19" t="n">
-        <v>239.7946204440554</v>
+        <v>251.4988935584558</v>
       </c>
       <c r="N19" t="n">
-        <v>255.7784311627346</v>
+        <v>255.7784311627347</v>
       </c>
       <c r="O19" t="n">
         <v>223.1915788508815</v>
       </c>
       <c r="P19" t="n">
-        <v>185.8230034622563</v>
+        <v>185.8230034622564</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.873108124497918</v>
+        <v>90.85355523820174</v>
       </c>
       <c r="R19" t="n">
-        <v>4.361161751055548</v>
+        <v>4.36116175105559</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>87.95691256612736</v>
       </c>
       <c r="L22" t="n">
-        <v>240.447162274518</v>
+        <v>240.4471622745181</v>
       </c>
       <c r="M22" t="n">
         <v>251.4988935584558</v>
       </c>
       <c r="N22" t="n">
-        <v>244.0741580483338</v>
+        <v>255.7784311627347</v>
       </c>
       <c r="O22" t="n">
         <v>223.1915788508815</v>
@@ -36297,10 +36297,10 @@
         <v>185.8230034622564</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.5578283526029</v>
+        <v>90.85355523820174</v>
       </c>
       <c r="R22" t="n">
-        <v>4.361161751055562</v>
+        <v>4.36116175105559</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510688</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N25" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
-        <v>216.9721971791845</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057592</v>
+        <v>8.752567558057706</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.136864811399057</v>
+        <v>6.136864811397857</v>
       </c>
       <c r="J26" t="n">
-        <v>238.5007955530359</v>
+        <v>238.5007955530364</v>
       </c>
       <c r="K26" t="n">
-        <v>384.9050811397237</v>
+        <v>384.9050811397242</v>
       </c>
       <c r="L26" t="n">
-        <v>503.3039089766553</v>
+        <v>503.303908976656</v>
       </c>
       <c r="M26" t="n">
-        <v>586.6349104145498</v>
+        <v>586.6349104145505</v>
       </c>
       <c r="N26" t="n">
-        <v>600.0156299972347</v>
+        <v>600.0156299972352</v>
       </c>
       <c r="O26" t="n">
-        <v>555.7667954725424</v>
+        <v>555.766795472543</v>
       </c>
       <c r="P26" t="n">
-        <v>446.475780803695</v>
+        <v>446.4757808036957</v>
       </c>
       <c r="Q26" t="n">
-        <v>298.5080993880428</v>
+        <v>298.5080993880433</v>
       </c>
       <c r="R26" t="n">
-        <v>107.3269931265481</v>
+        <v>107.3269931265486</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.29221119738955</v>
+        <v>93.29221119739003</v>
       </c>
       <c r="K28" t="n">
-        <v>253.7614541286429</v>
+        <v>253.7614541286434</v>
       </c>
       <c r="L28" t="n">
-        <v>349.5034115975025</v>
+        <v>367.471166754522</v>
       </c>
       <c r="M28" t="n">
-        <v>395.3471739778071</v>
+        <v>395.3471739778076</v>
       </c>
       <c r="N28" t="n">
-        <v>392.5707407518634</v>
+        <v>392.5707407518639</v>
       </c>
       <c r="O28" t="n">
-        <v>350.0669248069631</v>
+        <v>332.0991696499325</v>
       </c>
       <c r="P28" t="n">
-        <v>282.6708657294337</v>
+        <v>282.6708657294342</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.108033122217</v>
+        <v>126.1080331222175</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.136864811397373</v>
+        <v>6.136864811398027</v>
       </c>
       <c r="J29" t="n">
-        <v>238.5007955530359</v>
+        <v>238.5007955530365</v>
       </c>
       <c r="K29" t="n">
-        <v>384.9050811397237</v>
+        <v>384.9050811397244</v>
       </c>
       <c r="L29" t="n">
-        <v>503.3039089766553</v>
+        <v>503.303908976656</v>
       </c>
       <c r="M29" t="n">
-        <v>586.6349104145498</v>
+        <v>586.6349104145505</v>
       </c>
       <c r="N29" t="n">
-        <v>600.0156299972347</v>
+        <v>600.0156299972352</v>
       </c>
       <c r="O29" t="n">
-        <v>555.7667954725424</v>
+        <v>555.766795472543</v>
       </c>
       <c r="P29" t="n">
-        <v>446.475780803695</v>
+        <v>446.4757808036956</v>
       </c>
       <c r="Q29" t="n">
-        <v>298.5080993880428</v>
+        <v>298.5080993880434</v>
       </c>
       <c r="R29" t="n">
-        <v>107.3269931265481</v>
+        <v>107.3269931265487</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.29221119738955</v>
+        <v>93.2922111973902</v>
       </c>
       <c r="K31" t="n">
-        <v>253.7614541286429</v>
+        <v>253.7614541286435</v>
       </c>
       <c r="L31" t="n">
-        <v>367.4711667545214</v>
+        <v>367.4711667545221</v>
       </c>
       <c r="M31" t="n">
-        <v>395.3471739778071</v>
+        <v>395.3471739778078</v>
       </c>
       <c r="N31" t="n">
-        <v>392.5707407518634</v>
+        <v>392.570740751864</v>
       </c>
       <c r="O31" t="n">
-        <v>350.0669248069631</v>
+        <v>332.0991696499289</v>
       </c>
       <c r="P31" t="n">
-        <v>282.6708657294337</v>
+        <v>282.6708657294344</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.1402779651977</v>
+        <v>126.1080331222176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>25.61540818014228</v>
       </c>
       <c r="J32" t="n">
-        <v>257.9793389217812</v>
+        <v>257.9793389217808</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>404.3836245084686</v>
       </c>
       <c r="L32" t="n">
-        <v>487.997102744228</v>
+        <v>522.7824523454002</v>
       </c>
       <c r="M32" t="n">
-        <v>606.1134537832954</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>619.49417336598</v>
+        <v>559.093415584673</v>
       </c>
       <c r="O32" t="n">
-        <v>575.2453388412878</v>
+        <v>575.2453388412873</v>
       </c>
       <c r="P32" t="n">
-        <v>465.9543241724405</v>
+        <v>465.9543241724399</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>126.8055364952934</v>
+        <v>126.805536495293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.13451324341156</v>
+        <v>79.13451324341112</v>
       </c>
       <c r="K34" t="n">
-        <v>273.2399974973882</v>
+        <v>166.4962311527352</v>
       </c>
       <c r="L34" t="n">
-        <v>386.9497101232668</v>
+        <v>386.9497101232663</v>
       </c>
       <c r="M34" t="n">
-        <v>320.0724574350642</v>
+        <v>236.3160564371064</v>
       </c>
       <c r="N34" t="n">
-        <v>412.0492841206088</v>
+        <v>240.2315672761465</v>
       </c>
       <c r="O34" t="n">
-        <v>206.503801809826</v>
+        <v>368.4721643051147</v>
       </c>
       <c r="P34" t="n">
-        <v>167.142845784138</v>
+        <v>302.1494090981786</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.24361811321087</v>
+        <v>145.5865764909619</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>88.27060879450198</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
         <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.37971366430261</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37695,16 +37695,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266911</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J40" t="n">
         <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038275</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
@@ -37713,16 +37713,16 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>176.2789413352284</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554011</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266925</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J43" t="n">
         <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>245.4521519881986</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>176.278941335228</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057692</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,22 +38169,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J46" t="n">
         <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>184.3848942618834</v>
       </c>
       <c r="L46" t="n">
-        <v>234.9434039510693</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
@@ -38196,7 +38196,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057692</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
